--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_5.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_5.xlsx
@@ -466,25 +466,25 @@
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="D3">
-        <v>1.4581484058571542E-2</v>
+        <v>1.4559173121527451E-2</v>
       </c>
       <c r="E3">
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="F3">
-        <v>5.3188763181482163E-3</v>
+        <v>5.3426893983661685E-3</v>
       </c>
       <c r="G3">
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="H3">
-        <v>1.2840511537310971E-2</v>
+        <v>1.2820864439431761E-2</v>
       </c>
       <c r="I3">
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="J3">
-        <v>6.2188200232176291E-3</v>
+        <v>6.2466622310855969E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -498,25 +498,25 @@
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="D4">
-        <v>2.9034536059954666E-2</v>
+        <v>2.8990110698068595E-2</v>
       </c>
       <c r="E4">
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="F4">
-        <v>1.0688214288358323E-2</v>
+        <v>1.0736066370078463E-2</v>
       </c>
       <c r="G4">
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="H4">
-        <v>2.5581376344255193E-2</v>
+        <v>2.5542234616648781E-2</v>
       </c>
       <c r="I4">
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="J4">
-        <v>1.2506677755118654E-2</v>
+        <v>1.2562671258789071E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -530,25 +530,25 @@
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="D5">
-        <v>4.3360845386686435E-2</v>
+        <v>4.329449952725848E-2</v>
       </c>
       <c r="E5">
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="F5">
-        <v>1.6108735448840412E-2</v>
+        <v>1.6180855683737422E-2</v>
       </c>
       <c r="G5">
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="H5">
-        <v>3.8223749876173573E-2</v>
+        <v>3.8165264219044925E-2</v>
       </c>
       <c r="I5">
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="J5">
-        <v>1.8864729237046334E-2</v>
+        <v>1.894918830015313E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -562,25 +562,25 @@
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="D6">
-        <v>5.7562071921356706E-2</v>
+        <v>5.7473996951922443E-2</v>
       </c>
       <c r="E6">
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="F6">
-        <v>2.1581175159803186E-2</v>
+        <v>2.1677795991824525E-2</v>
       </c>
       <c r="G6">
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="H6">
-        <v>5.0768769793053295E-2</v>
+        <v>5.0691089165888811E-2</v>
       </c>
       <c r="I6">
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="J6">
-        <v>2.5294156465879073E-2</v>
+        <v>2.5407400643960867E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -594,25 +594,25 @@
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="D7">
-        <v>7.1639846687718292E-2</v>
+        <v>7.1530231500205294E-2</v>
       </c>
       <c r="E7">
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="F7">
-        <v>2.7106282936019483E-2</v>
+        <v>2.7227640164756602E-2</v>
       </c>
       <c r="G7">
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="H7">
-        <v>6.3217556300800198E-2</v>
+        <v>6.3120827949073935E-2</v>
       </c>
       <c r="I7">
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="J7">
-        <v>3.1796168126587004E-2</v>
+        <v>3.1938522386572042E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -626,25 +626,25 @@
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="D8">
-        <v>8.5595772475150059E-2</v>
+        <v>8.5464803509078952E-2</v>
       </c>
       <c r="E8">
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="F8">
-        <v>3.2684822789040328E-2</v>
+        <v>3.2831155634632035E-2</v>
       </c>
       <c r="G8">
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="H8">
-        <v>7.5571212484687469E-2</v>
+        <v>7.54555819660572E-2</v>
       </c>
       <c r="I8">
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="J8">
-        <v>3.8372000349739886E-2</v>
+        <v>3.8543795192822417E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -658,25 +658,25 @@
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="D9">
-        <v>9.9431424446974753E-2</v>
+        <v>9.9279285731729464E-2</v>
       </c>
       <c r="E9">
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="F9">
-        <v>3.8317573579385616E-2</v>
+        <v>3.8489124748998238E-2</v>
       </c>
       <c r="G9">
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="H9">
-        <v>8.7830824635188903E-2</v>
+        <v>8.7696435845193668E-2</v>
       </c>
       <c r="I9">
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="J9">
-        <v>4.5022917494963309E-2</v>
+        <v>4.5224489082987575E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -690,25 +690,25 @@
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="D10">
-        <v>0.11314835073311681</v>
+        <v>0.11297522392930802</v>
       </c>
       <c r="E10">
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="F10">
-        <v>4.4005329379052466E-2</v>
+        <v>4.4202345134982959E-2</v>
       </c>
       <c r="G10">
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="H10">
-        <v>9.999746256639927E-2</v>
+        <v>9.9844457763669597E-2</v>
       </c>
       <c r="I10">
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="J10">
-        <v>5.1750212961386273E-2</v>
+        <v>5.1981903246858953E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -722,25 +722,25 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="D11">
-        <v>0.12674807300756816</v>
+        <v>0.1265541374475132</v>
       </c>
       <c r="E11">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="F11">
-        <v>4.9748899844695521E-2</v>
+        <v>4.9971630074145387E-2</v>
       </c>
       <c r="G11">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="H11">
-        <v>0.11207217992723728</v>
+        <v>0.11190069975822933</v>
       </c>
       <c r="I11">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="J11">
-        <v>5.8555210026171277E-2</v>
+        <v>5.8817366886028045E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -754,25 +754,25 @@
         <v>0.10101010101010101</v>
       </c>
       <c r="D12">
-        <v>0.1402320870511147</v>
+        <v>0.14001751977845633</v>
       </c>
       <c r="E12">
         <v>0.10101010101010101</v>
       </c>
       <c r="F12">
-        <v>5.5549110601847834E-2</v>
+        <v>5.5797808888417177E-2</v>
       </c>
       <c r="G12">
         <v>0.10101010101010101</v>
       </c>
       <c r="H12">
-        <v>0.12405601450562173</v>
+        <v>0.12386619802888603</v>
       </c>
       <c r="I12">
         <v>0.10101010101010101</v>
       </c>
       <c r="J12">
-        <v>6.5439262712268728E-2</v>
+        <v>6.5732240085525917E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -786,25 +786,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D13">
-        <v>0.15360186329976025</v>
+        <v>0.1533668391082465</v>
       </c>
       <c r="E13">
         <v>0.1111111111111111</v>
       </c>
       <c r="F13">
-        <v>6.1406803640564792E-2</v>
+        <v>6.1681727337517735E-2</v>
       </c>
       <c r="G13">
         <v>0.1111111111111111</v>
       </c>
       <c r="H13">
-        <v>0.13594998852580509</v>
+        <v>0.13574197323580028</v>
       </c>
       <c r="I13">
         <v>0.1111111111111111</v>
       </c>
       <c r="J13">
-        <v>7.2403756686590964E-2</v>
+        <v>7.2727914716018333E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -818,25 +818,25 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="D14">
-        <v>0.16685884737927045</v>
+        <v>0.16660353885071638</v>
       </c>
       <c r="E14">
         <v>0.12121212121212122</v>
       </c>
       <c r="F14">
-        <v>6.7322837722889689E-2</v>
+        <v>6.7624248028244086E-2</v>
       </c>
       <c r="G14">
         <v>0.12121212121212122</v>
       </c>
       <c r="H14">
-        <v>0.14775510893904326</v>
+        <v>0.14752903078950511</v>
       </c>
       <c r="I14">
         <v>0.12121212121212122</v>
       </c>
       <c r="J14">
-        <v>7.9450110189857079E-2</v>
+        <v>7.9805815367813698E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -850,25 +850,25 @@
         <v>0.13131313131313133</v>
       </c>
       <c r="D15">
-        <v>0.18000446062624484</v>
+        <v>0.179729038167697</v>
       </c>
       <c r="E15">
         <v>0.13131313131313133</v>
       </c>
       <c r="F15">
-        <v>7.3298088802555117E-2</v>
+        <v>7.3626250836051232E-2</v>
       </c>
       <c r="G15">
         <v>0.13131313131313133</v>
       </c>
       <c r="H15">
-        <v>0.15947236770777543</v>
+        <v>0.159228361134651</v>
       </c>
       <c r="I15">
         <v>0.13131313131313133</v>
       </c>
       <c r="J15">
-        <v>8.6579774999419587E-2</v>
+        <v>8.6967400318000265E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -882,25 +882,25 @@
         <v>0.14141414141414141</v>
       </c>
       <c r="D16">
-        <v>0.19304010059611079</v>
+        <v>0.19274473247623461</v>
       </c>
       <c r="E16">
         <v>0.14141414141414141</v>
       </c>
       <c r="F16">
-        <v>7.9333450457350532E-2</v>
+        <v>7.9688633339355497E-2</v>
       </c>
       <c r="G16">
         <v>0.14141414141414141</v>
       </c>
       <c r="H16">
-        <v>0.17110274208348203</v>
+        <v>0.1708409400274388</v>
       </c>
       <c r="I16">
         <v>0.14141414141414141</v>
       </c>
       <c r="J16">
-        <v>9.379423742644534E-2</v>
+        <v>9.4214162532091569E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -914,25 +914,25 @@
         <v>0.15151515151515152</v>
       </c>
       <c r="D17">
-        <v>0.2059671415584225</v>
+        <v>0.20565199394313155</v>
       </c>
       <c r="E17">
         <v>0.15151515151515152</v>
       </c>
       <c r="F17">
-        <v>8.5429834334604868E-2</v>
+        <v>8.5812311267011637E-2</v>
       </c>
       <c r="G17">
         <v>0.15151515151515152</v>
       </c>
       <c r="H17">
-        <v>0.18264719487838507</v>
+        <v>0.18236772880690411</v>
       </c>
       <c r="I17">
         <v>0.15151515151515152</v>
       </c>
       <c r="J17">
-        <v>0.10109501934888986</v>
+        <v>0.10154763070162548</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -946,25 +946,25 @@
         <v>0.16161616161616163</v>
       </c>
       <c r="D18">
-        <v>0.21878693497983093</v>
+        <v>0.21845217196717753</v>
       </c>
       <c r="E18">
         <v>0.16161616161616163</v>
       </c>
       <c r="F18">
-        <v>9.1588170610250069E-2</v>
+        <v>9.1998218959431596E-2</v>
       </c>
       <c r="G18">
         <v>0.16161616161616163</v>
       </c>
       <c r="H18">
-        <v>0.19410667473114815</v>
+        <v>0.19380967466021101</v>
       </c>
       <c r="I18">
         <v>0.16161616161616163</v>
       </c>
       <c r="J18">
-        <v>0.10848367928177244</v>
+        <v>0.10896937031923105</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -978,25 +978,25 @@
         <v>0.17171717171717171</v>
       </c>
       <c r="D19">
-        <v>0.23150080999508368</v>
+        <v>0.23114659364942849</v>
       </c>
       <c r="E19">
         <v>0.17171717171717171</v>
       </c>
       <c r="F19">
-        <v>9.7809408461951561E-2</v>
+        <v>9.8247309843833244E-2</v>
       </c>
       <c r="G19">
         <v>0.17171717171717171</v>
       </c>
       <c r="H19">
-        <v>0.2054821163667313</v>
+        <v>0.20516771088210919</v>
       </c>
       <c r="I19">
         <v>0.17171717171717171</v>
       </c>
       <c r="J19">
-        <v>0.11596181348633366</v>
+        <v>0.11648098479275176</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1010,25 +1010,25 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="D20">
-        <v>0.2441100738663986</v>
+        <v>0.24373656425187759</v>
       </c>
       <c r="E20">
         <v>0.18181818181818182</v>
       </c>
       <c r="F20">
-        <v>0.10409451655681068</v>
+        <v>0.10456055692412634</v>
       </c>
       <c r="G20">
         <v>0.18181818181818182</v>
       </c>
       <c r="H20">
-        <v>0.2167744408505502</v>
+        <v>0.21644275712870426</v>
       </c>
       <c r="I20">
         <v>0.18181818181818182</v>
       </c>
       <c r="J20">
-        <v>0.12353105711973285</v>
+        <v>0.12408411660009032</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1042,25 +1042,25 @@
         <v>0.19191919191919191</v>
       </c>
       <c r="D21">
-        <v>0.25661601243154381</v>
+        <v>0.25622336764484938</v>
       </c>
       <c r="E21">
         <v>0.19191919191919191</v>
       </c>
       <c r="F21">
-        <v>0.11044448355416568</v>
+        <v>0.11093895328596445</v>
       </c>
       <c r="G21">
         <v>0.19191919191919191</v>
       </c>
       <c r="H21">
-        <v>0.22798455583708357</v>
+        <v>0.22763571966568466</v>
       </c>
       <c r="I21">
         <v>0.19191919191919191</v>
       </c>
       <c r="J21">
-        <v>0.13119308542702468</v>
+        <v>0.13178044848652182</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -1074,25 +1074,25 @@
         <v>0.20202020202020202</v>
       </c>
       <c r="D22">
-        <v>0.26901989054094799</v>
+        <v>0.26860826674344163</v>
       </c>
       <c r="E22">
         <v>0.20202020202020202</v>
       </c>
       <c r="F22">
-        <v>0.11686031862403941</v>
+        <v>0.11738351261751408</v>
       </c>
       <c r="G22">
         <v>0.20202020202020202</v>
       </c>
       <c r="H22">
-        <v>0.2391133558130713</v>
+        <v>0.23874749161114797</v>
       </c>
       <c r="I22">
         <v>0.20202020202020202</v>
       </c>
       <c r="J22">
-        <v>0.13894961497724065</v>
+        <v>0.13957170470630934</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -1106,25 +1106,25 @@
         <v>0.21212121212121213</v>
       </c>
       <c r="D23">
-        <v>0.28132295248415246</v>
+        <v>0.2808925039333246</v>
       </c>
       <c r="E23">
         <v>0.21212121212121213</v>
       </c>
       <c r="F23">
-        <v>0.12334305198180452</v>
+        <v>0.1238952697465132</v>
       </c>
       <c r="G23">
         <v>0.21212121212121213</v>
       </c>
       <c r="H23">
-        <v>0.25016172233543915</v>
+        <v>0.24977895317316129</v>
       </c>
       <c r="I23">
         <v>0.21212121212121213</v>
       </c>
       <c r="J23">
-        <v>0.1468024049454906</v>
+        <v>0.14745965231054539</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -1138,25 +1138,25 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D24">
-        <v>0.2935264224059066</v>
+        <v>0.29307730148619981</v>
       </c>
       <c r="E24">
         <v>0.22222222222222221</v>
       </c>
       <c r="F24">
-        <v>0.12989373543966132</v>
+        <v>0.13047528119421856</v>
       </c>
       <c r="G24">
         <v>0.22222222222222221</v>
       </c>
       <c r="H24">
-        <v>0.26113052426408312</v>
+        <v>0.26073097188218947</v>
       </c>
       <c r="I24">
         <v>0.22222222222222221</v>
       </c>
       <c r="J24">
-        <v>0.15475325844309559</v>
+        <v>0.15544610248324012</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -1170,25 +1170,25 @@
         <v>0.23232323232323232</v>
       </c>
       <c r="D25">
-        <v>0.3056315047121998</v>
+        <v>0.30516386196521095</v>
       </c>
       <c r="E25">
         <v>0.23232323232323232</v>
       </c>
       <c r="F25">
-        <v>0.13651344297554835</v>
+        <v>0.13712462574686299</v>
       </c>
       <c r="G25">
         <v>0.23232323232323232</v>
       </c>
       <c r="H25">
-        <v>0.27202061798964317</v>
+        <v>0.27160440281852044</v>
       </c>
       <c r="I25">
         <v>0.23232323232323232</v>
       </c>
       <c r="J25">
-        <v>0.16280402389786544</v>
+        <v>0.1635329119277783</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -1202,25 +1202,25 @@
         <v>0.24242424242424243</v>
       </c>
       <c r="D26">
-        <v>0.31763938446651163</v>
+        <v>0.31715336862058746</v>
       </c>
       <c r="E26">
         <v>0.24242424242424243</v>
       </c>
       <c r="F26">
-        <v>0.143203271320132</v>
+        <v>0.14384440504527315</v>
       </c>
       <c r="G26">
         <v>0.24242424242424243</v>
       </c>
       <c r="H26">
-        <v>0.28283284765639033</v>
+        <v>0.28240008883481116</v>
       </c>
       <c r="I26">
         <v>0.24242424242424243</v>
       </c>
       <c r="J26">
-        <v>0.17095659648673936</v>
+        <v>0.1717219843059741</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -1234,25 +1234,25 @@
         <v>0.25252525252525254</v>
       </c>
       <c r="D27">
-        <v>0.32955122777655521</v>
+        <v>0.3290469857757965</v>
       </c>
       <c r="E27">
         <v>0.25252525252525254</v>
       </c>
       <c r="F27">
-        <v>0.14996434056254854</v>
+        <v>0.1506357441933236</v>
       </c>
       <c r="G27">
         <v>0.25252525252525254</v>
       </c>
       <c r="H27">
-        <v>0.29356804538035097</v>
+        <v>0.29311886077387822</v>
       </c>
       <c r="I27">
         <v>0.25252525252525254</v>
       </c>
       <c r="J27">
-        <v>0.17921291962312244</v>
+        <v>0.18001527173206647</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -1266,25 +1266,25 @@
         <v>0.26262626262626265</v>
       </c>
       <c r="D28">
-        <v>0.34136818217177789</v>
+        <v>0.34084585920446558</v>
       </c>
       <c r="E28">
         <v>0.26262626262626265</v>
       </c>
       <c r="F28">
-        <v>0.15679779477560199</v>
+        <v>0.15749979238593359</v>
       </c>
       <c r="G28">
         <v>0.26262626262626265</v>
       </c>
       <c r="H28">
-        <v>0.30422703146278468</v>
+        <v>0.30376153768184905</v>
       </c>
       <c r="I28">
         <v>0.26262626262626265</v>
       </c>
       <c r="J28">
-        <v>0.18757498650137</v>
+        <v>0.1884147763241184</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1298,25 +1298,25 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="D29">
-        <v>0.35309137697187626</v>
+        <v>0.35255111649833409</v>
       </c>
       <c r="E29">
         <v>0.27272727272727271</v>
       </c>
       <c r="F29">
-        <v>0.16370480266115039</v>
+        <v>0.16443772355734285</v>
       </c>
       <c r="G29">
         <v>0.27272727272727271</v>
       </c>
       <c r="H29">
-        <v>0.3148106145991319</v>
+        <v>0.31432892701678977</v>
       </c>
       <c r="I29">
         <v>0.27272727272727271</v>
       </c>
       <c r="J29">
-        <v>0.19604484170099765</v>
+        <v>0.19692255181540899</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -1330,25 +1330,25 @@
         <v>0.28282828282828282</v>
       </c>
       <c r="D30">
-        <v>0.3647219236465743</v>
+        <v>0.36416386742648094</v>
       </c>
       <c r="E30">
         <v>0.28282828282828282</v>
       </c>
       <c r="F30">
-        <v>0.17068655821644521</v>
+        <v>0.17145073705043423</v>
       </c>
       <c r="G30">
         <v>0.28282828282828282</v>
       </c>
       <c r="H30">
-        <v>0.32531959208354311</v>
+        <v>0.32482182485292171</v>
       </c>
       <c r="I30">
         <v>0.28282828282828282</v>
       </c>
       <c r="J30">
-        <v>0.20462458285332971</v>
+        <v>0.2055407052285437</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -1362,25 +1362,25 @@
         <v>0.29292929292929293</v>
       </c>
       <c r="D31">
-        <v>0.37626091616690538</v>
+        <v>0.37568520428606855</v>
       </c>
       <c r="E31">
         <v>0.29292929292929293</v>
       </c>
       <c r="F31">
-        <v>0.17774428142222137</v>
+        <v>0.17854005830790448</v>
       </c>
       <c r="G31">
         <v>0.29292929292929293</v>
       </c>
       <c r="H31">
-        <v>0.33575475000909788</v>
+        <v>0.33524101608053358</v>
       </c>
       <c r="I31">
         <v>0.29292929292929293</v>
       </c>
       <c r="J31">
-        <v>0.21331636237343851</v>
+        <v>0.21427139861514771</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -1394,25 +1394,25 @@
         <v>0.30303030303030304</v>
       </c>
       <c r="D32">
-        <v>0.38770943134823016</v>
+        <v>0.38711620224483678</v>
       </c>
       <c r="E32">
         <v>0.30303030303030304</v>
       </c>
       <c r="F32">
-        <v>0.18487921895337214</v>
+        <v>0.18570693958612072</v>
       </c>
       <c r="G32">
         <v>0.30303030303030304</v>
       </c>
       <c r="H32">
-        <v>0.34611686346381842</v>
+        <v>0.34558727460169569</v>
       </c>
       <c r="I32">
         <v>0.30303030303030304</v>
       </c>
       <c r="J32">
-        <v>0.22212238926038</v>
+        <v>0.22311685086416141</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -1426,25 +1426,25 @@
         <v>0.31313131313131315</v>
       </c>
       <c r="D33">
-        <v>0.39906852918521801</v>
+        <v>0.39845791967557109</v>
       </c>
       <c r="E33">
         <v>0.31313131313131315</v>
       </c>
       <c r="F33">
-        <v>0.19209264491307651</v>
+        <v>0.19295266069253464</v>
       </c>
       <c r="G33">
         <v>0.31313131313131315</v>
       </c>
       <c r="H33">
-        <v>0.35640669672258302</v>
+        <v>0.35586136352187941</v>
       </c>
       <c r="I33">
         <v>0.31313131313131315</v>
       </c>
       <c r="J33">
-        <v>0.23104493096888692</v>
+        <v>0.23207933958191307</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -1458,25 +1458,25 @@
         <v>0.32323232323232326</v>
       </c>
       <c r="D34">
-        <v>0.41033925317900971</v>
+        <v>0.40971139848276472</v>
       </c>
       <c r="E34">
         <v>0.32323232323232326</v>
       </c>
       <c r="F34">
-        <v>0.19938586159128871</v>
+        <v>0.20027852974756799</v>
       </c>
       <c r="G34">
         <v>0.32323232323232326</v>
       </c>
       <c r="H34">
-        <v>0.36662500343503596</v>
+        <v>0.36606403533757953</v>
       </c>
       <c r="I34">
         <v>0.32323232323232326</v>
       </c>
       <c r="J34">
-        <v>0.24008631535585145</v>
+        <v>0.24116120304731631</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -1490,25 +1490,25 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D35">
-        <v>0.4215226306567737</v>
+        <v>0.42087766442168639</v>
       </c>
       <c r="E35">
         <v>0.33333333333333331</v>
       </c>
       <c r="F35">
-        <v>0.20676020024853742</v>
+        <v>0.20768588397192062</v>
       </c>
       <c r="G35">
         <v>0.33333333333333331</v>
       </c>
       <c r="H35">
-        <v>0.376772526809593</v>
+        <v>0.37619603212003838</v>
       </c>
       <c r="I35">
         <v>0.33333333333333331</v>
       </c>
       <c r="J35">
-        <v>0.24924893270510715</v>
+        <v>0.25036484224571703</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -1522,25 +1522,25 @@
         <v>0.34343434343434343</v>
       </c>
       <c r="D36">
-        <v>0.43261967308386157</v>
+        <v>0.43195772741005778</v>
       </c>
       <c r="E36">
         <v>0.34343434343434343</v>
       </c>
       <c r="F36">
-        <v>0.2142170219260259</v>
+        <v>0.21517609050029787</v>
       </c>
       <c r="G36">
         <v>0.34343434343434343</v>
       </c>
       <c r="H36">
-        <v>0.38684999979363632</v>
+        <v>0.38625808569516507</v>
       </c>
       <c r="I36">
         <v>0.34343434343434343</v>
       </c>
       <c r="J36">
-        <v>0.2585352378342099</v>
+        <v>0.25969272298510676</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -1554,25 +1554,25 @@
         <v>0.35353535353535354</v>
       </c>
       <c r="D37">
-        <v>0.44363137636876149</v>
+        <v>0.44295258183254083</v>
       </c>
       <c r="E37">
         <v>0.35353535353535354</v>
       </c>
       <c r="F37">
-        <v>0.22175771828306762</v>
+        <v>0.22275054722259507</v>
       </c>
       <c r="G37">
         <v>0.35353535353535354</v>
       </c>
       <c r="H37">
-        <v>0.39685814524999008</v>
+        <v>0.39625091781974081</v>
       </c>
       <c r="I37">
         <v>0.35353535353535354</v>
       </c>
       <c r="J37">
-        <v>0.2679477522871172</v>
+        <v>0.26914737809861838</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -1586,25 +1586,25 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="D38">
-        <v>0.45455872116104384</v>
+        <v>0.45386320683822667</v>
       </c>
       <c r="E38">
         <v>0.36363636363636365</v>
       </c>
       <c r="F38">
-        <v>0.22938371246294093</v>
+        <v>0.2304106836536291</v>
       </c>
       <c r="G38">
         <v>0.36363636363636365</v>
       </c>
       <c r="H38">
-        <v>0.40679767612976669</v>
+        <v>0.40617524035400088</v>
       </c>
       <c r="I38">
         <v>0.36363636363636365</v>
       </c>
       <c r="J38">
-        <v>0.27748906661688127</v>
+        <v>0.27873140973743971</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -1618,25 +1618,25 @@
         <v>0.37373737373737376</v>
       </c>
       <c r="D39">
-        <v>0.46540267314248462</v>
+        <v>0.46469056663131436</v>
       </c>
       <c r="E39">
         <v>0.37373737373737376</v>
       </c>
       <c r="F39">
-        <v>0.23709645998829337</v>
+        <v>0.23815796183255122</v>
       </c>
       <c r="G39">
         <v>0.37373737373737376</v>
       </c>
       <c r="H39">
-        <v>0.4166692956416701</v>
+        <v>0.41603175543067883</v>
       </c>
       <c r="I39">
         <v>0.37373737373737376</v>
       </c>
       <c r="J39">
-        <v>0.28716184276269641</v>
+        <v>0.28844749175850232</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -1650,25 +1650,25 @@
         <v>0.38383838383838381</v>
       </c>
       <c r="D40">
-        <v>0.47616418331154953</v>
+        <v>0.47543561075515933</v>
       </c>
       <c r="E40">
         <v>0.38383838383838381</v>
       </c>
       <c r="F40">
-        <v>0.24489744968727933</v>
+        <v>0.24599387725313132</v>
       </c>
       <c r="G40">
         <v>0.38383838383838381</v>
       </c>
       <c r="H40">
-        <v>0.42647369741784025</v>
+        <v>0.42582115562059719</v>
       </c>
       <c r="I40">
         <v>0.38383838383838381</v>
       </c>
       <c r="J40">
-        <v>0.29696881652588109</v>
+        <v>0.29829837221154953</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -1682,25 +1682,25 @@
         <v>0.39393939393939392</v>
       </c>
       <c r="D41">
-        <v>0.48684418826141435</v>
+        <v>0.48609927436986866</v>
       </c>
       <c r="E41">
         <v>0.39393939393939392</v>
       </c>
       <c r="F41">
-        <v>0.25278820465166818</v>
+        <v>0.25391995982615551</v>
       </c>
       <c r="G41">
         <v>0.39393939393939392</v>
       </c>
       <c r="H41">
-        <v>0.43621156567632208</v>
+        <v>0.43554412409488802</v>
       </c>
       <c r="I41">
         <v>0.39393939393939392</v>
       </c>
       <c r="J41">
-        <v>0.30691280014963418</v>
+        <v>0.30828687593044196</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -1714,25 +1714,25 @@
         <v>0.40404040404040403</v>
       </c>
       <c r="D42">
-        <v>0.49744361045169133</v>
+        <v>0.49668247852361097</v>
       </c>
       <c r="E42">
         <v>0.40404040404040403</v>
       </c>
       <c r="F42">
-        <v>0.26077028322821882</v>
+        <v>0.26193777487523912</v>
       </c>
       <c r="G42">
         <v>0.40404040404040403</v>
       </c>
       <c r="H42">
-        <v>0.44588357538023737</v>
+        <v>0.4452013347839206</v>
       </c>
       <c r="I42">
         <v>0.40404040404040403</v>
       </c>
       <c r="J42">
-        <v>0.31699668500767381</v>
+        <v>0.31841590723383395</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -1746,25 +1746,25 @@
         <v>0.41414141414141414</v>
       </c>
       <c r="D43">
-        <v>0.50796335847402885</v>
+        <v>0.5071861304178108</v>
       </c>
       <c r="E43">
         <v>0.41414141414141414</v>
       </c>
       <c r="F43">
-        <v>0.26884528004467589</v>
+        <v>0.27004892416741622</v>
       </c>
       <c r="G43">
         <v>0.41414141414141414</v>
       </c>
       <c r="H43">
-        <v>0.45549039239373773</v>
+        <v>0.45479345253301684</v>
       </c>
       <c r="I43">
         <v>0.41414141414141414</v>
       </c>
       <c r="J43">
-        <v>0.32722344440715972</v>
+        <v>0.32868845274064457</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -1778,25 +1778,25 @@
         <v>0.42424242424242425</v>
       </c>
       <c r="D44">
-        <v>0.51840432731174413</v>
+        <v>0.51761112366638273</v>
       </c>
       <c r="E44">
         <v>0.42424242424242425</v>
       </c>
       <c r="F44">
-        <v>0.27701482707180491</v>
+        <v>0.27825504697993009</v>
       </c>
       <c r="G44">
         <v>0.42424242424242425</v>
       </c>
       <c r="H44">
-        <v>0.4650326736348161</v>
+        <v>0.46432113325502783</v>
       </c>
       <c r="I44">
         <v>0.42424242424242425</v>
       </c>
       <c r="J44">
-        <v>0.33759613651160519</v>
+        <v>0.33910758430605592</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -1810,25 +1810,25 @@
         <v>0.43434343434343436</v>
       </c>
       <c r="D45">
-        <v>0.52876739859364352</v>
+        <v>0.52795833854916496</v>
       </c>
       <c r="E45">
         <v>0.43434343434343436</v>
       </c>
       <c r="F45">
-        <v>0.28528059472295475</v>
+        <v>0.28655782120471807</v>
       </c>
       <c r="G45">
         <v>0.43434343434343436</v>
       </c>
       <c r="H45">
-        <v>0.47451106722504688</v>
+        <v>0.47378502407984591</v>
       </c>
       <c r="I45">
         <v>0.43434343434343436</v>
       </c>
       <c r="J45">
-        <v>0.34811790738981579</v>
+        <v>0.34967646208410236</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -1842,25 +1842,25 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="D46">
-        <v>0.53905344084218476</v>
+        <v>0.53822864225970024</v>
       </c>
       <c r="E46">
         <v>0.44444444444444442</v>
       </c>
       <c r="F46">
-        <v>0.29364429299270112</v>
+        <v>0.29495896449215298</v>
       </c>
       <c r="G46">
         <v>0.44444444444444442</v>
       </c>
       <c r="H46">
-        <v>0.48392621263633018</v>
+        <v>0.48318576350092357</v>
       </c>
       <c r="I46">
         <v>0.44444444444444442</v>
       </c>
       <c r="J46">
-        <v>0.35879199419724028</v>
+        <v>0.36039833772326391</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -1874,25 +1874,25 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="D47">
-        <v>0.54926330971612447</v>
+        <v>0.5484228891475128</v>
       </c>
       <c r="E47">
         <v>0.45454545454545453</v>
       </c>
       <c r="F47">
-        <v>0.30210767263620286</v>
+        <v>0.30346023543567952</v>
       </c>
       <c r="G47">
         <v>0.45454545454545453</v>
       </c>
       <c r="H47">
-        <v>0.49327874083470785</v>
+        <v>0.49252398151886972</v>
       </c>
       <c r="I47">
         <v>0.45454545454545453</v>
       </c>
       <c r="J47">
-        <v>0.36962172849649033</v>
+        <v>0.3712765577018533</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -1906,25 +1906,25 @@
         <v>0.46464646464646464</v>
       </c>
       <c r="D48">
-        <v>0.55939784824779493</v>
+        <v>0.55854192095502264</v>
       </c>
       <c r="E48">
         <v>0.46464646464646464</v>
       </c>
       <c r="F48">
-        <v>0.31067252639097825</v>
+        <v>0.31206343479906051</v>
       </c>
       <c r="G48">
         <v>0.46464646464646464</v>
       </c>
       <c r="H48">
-        <v>0.50256927442131849</v>
+        <v>0.50180029978218932</v>
       </c>
       <c r="I48">
         <v>0.46464646464646464</v>
       </c>
       <c r="J48">
-        <v>0.3806105397241849</v>
+        <v>0.38231456681038073</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -1938,25 +1938,25 @@
         <v>0.47474747474747475</v>
       </c>
       <c r="D49">
-        <v>0.56945788707514911</v>
+        <v>0.56858656704923394</v>
       </c>
       <c r="E49">
         <v>0.47474747474747475</v>
       </c>
       <c r="F49">
-        <v>0.31934069024289341</v>
+        <v>0.32077040678803348</v>
       </c>
       <c r="G49">
         <v>0.47474747474747475</v>
       </c>
       <c r="H49">
-        <v>0.51179842777055995</v>
+        <v>0.51101533172523372</v>
       </c>
       <c r="I49">
         <v>0.47474747474747475</v>
       </c>
       <c r="J49">
-        <v>0.39176195881169745</v>
+        <v>0.39351591178851214</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -1970,25 +1970,25 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="D50">
-        <v>0.57944424466870526</v>
+        <v>0.57855764464833459</v>
       </c>
       <c r="E50">
         <v>0.48484848484848486</v>
       </c>
       <c r="F50">
-        <v>0.32811404473823991</v>
+        <v>0.32958304036826208</v>
       </c>
       <c r="G50">
         <v>0.48484848484848486</v>
       </c>
       <c r="H50">
-        <v>0.52096680716552191</v>
+        <v>0.52016968270342723</v>
       </c>
       <c r="I50">
         <v>0.48484848484848486</v>
       </c>
       <c r="J50">
-        <v>0.40307962196783625</v>
+        <v>0.40488424512468446</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -2002,25 +2002,25 @@
         <v>0.49494949494949497</v>
       </c>
       <c r="D51">
-        <v>0.589357727553526</v>
+        <v>0.58845595904333337</v>
       </c>
       <c r="E51">
         <v>0.49494949494949497</v>
       </c>
       <c r="F51">
-        <v>0.33699451634387134</v>
+        <v>0.33850327063156277</v>
       </c>
       <c r="G51">
         <v>0.49494949494949497</v>
       </c>
       <c r="H51">
-        <v>0.53007501093075249</v>
+        <v>0.52926395012582916</v>
       </c>
       <c r="I51">
         <v>0.49494949494949497</v>
       </c>
       <c r="J51">
-        <v>0.41456727463197013</v>
+        <v>0.41642332902693041</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -2034,25 +2034,25 @@
         <v>0.50505050505050508</v>
       </c>
       <c r="D52">
-        <v>0.5991991305263521</v>
+        <v>0.59828230381486325</v>
       </c>
       <c r="E52">
         <v>0.50505050505050508</v>
       </c>
       <c r="F52">
-        <v>0.34598407885746507</v>
+        <v>0.34753308021247975</v>
       </c>
       <c r="G52">
         <v>0.50505050505050508</v>
       </c>
       <c r="H52">
-        <v>0.53912362956241755</v>
+        <v>0.53829872358509501</v>
       </c>
       <c r="I52">
         <v>0.50505050505050508</v>
       </c>
       <c r="J52">
-        <v>0.42622877560662864</v>
+        <v>0.42813703957397986</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -2066,25 +2066,25 @@
         <v>0.51515151515151514</v>
       </c>
       <c r="D53">
-        <v>0.60896923686801963</v>
+        <v>0.60803746104527234</v>
       </c>
       <c r="E53">
         <v>0.51515151515151514</v>
       </c>
       <c r="F53">
-        <v>0.35508475487007762</v>
+        <v>0.35667450075738888</v>
       </c>
       <c r="G53">
         <v>0.51515151515151514</v>
       </c>
       <c r="H53">
-        <v>0.54811324585591548</v>
+        <v>0.54727458498489567</v>
       </c>
       <c r="I53">
         <v>0.51515151515151514</v>
       </c>
       <c r="J53">
-        <v>0.43806810137915403</v>
+        <v>0.44002937105626128</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -2098,25 +2098,25 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="D54">
-        <v>0.6186688185512762</v>
+        <v>0.61772220152612334</v>
       </c>
       <c r="E54">
         <v>0.5252525252525253</v>
       </c>
       <c r="F54">
-        <v>0.36429861728327029</v>
+        <v>0.3659296144484151</v>
       </c>
       <c r="G54">
         <v>0.5252525252525253</v>
       </c>
       <c r="H54">
-        <v>0.55704443503100309</v>
+        <v>0.55619210866485158</v>
       </c>
       <c r="I54">
         <v>0.5252525252525253</v>
       </c>
       <c r="J54">
-        <v>0.45008935064257377</v>
+        <v>0.45210444051701343</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -2130,25 +2130,25 @@
         <v>0.53535353535353536</v>
       </c>
       <c r="D55">
-        <v>0.62829863644411332</v>
+        <v>0.6273372849612131</v>
       </c>
       <c r="E55">
         <v>0.53535353535353536</v>
       </c>
       <c r="F55">
-        <v>0.37362779088319464</v>
+        <v>0.37530055558456582</v>
       </c>
       <c r="G55">
         <v>0.53535353535353536</v>
       </c>
       <c r="H55">
-        <v>0.5659177648544893</v>
+        <v>0.56505186152303932</v>
       </c>
       <c r="I55">
         <v>0.53535353535353536</v>
       </c>
       <c r="J55">
-        <v>0.46229674902648971</v>
+        <v>0.4643664925043563</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -2162,25 +2162,25 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="D56">
-        <v>0.637859440508727</v>
+        <v>0.63688346016523067</v>
       </c>
       <c r="E56">
         <v>0.54545454545454541</v>
       </c>
       <c r="F56">
-        <v>0.38307445397414969</v>
+        <v>0.38478951222260144</v>
       </c>
       <c r="G56">
         <v>0.54545454545454541</v>
       </c>
       <c r="H56">
-        <v>0.57473379576055372</v>
+        <v>0.57385440313612546</v>
       </c>
       <c r="I56">
         <v>0.54545454545454541</v>
       </c>
       <c r="J56">
-        <v>0.47469465404945677</v>
+        <v>0.47681990404584101</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -2194,25 +2194,25 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="D57">
-        <v>0.64735196999621536</v>
+        <v>0.64636146525815585</v>
       </c>
       <c r="E57">
         <v>0.55555555555555558</v>
       </c>
       <c r="F57">
-        <v>0.39264084007424782</v>
+        <v>0.39439872788029245</v>
       </c>
       <c r="G57">
         <v>0.55555555555555558</v>
       </c>
       <c r="H57">
-        <v>0.58349308096873842</v>
+        <v>0.58260028587717816</v>
       </c>
       <c r="I57">
         <v>0.55555555555555558</v>
       </c>
       <c r="J57">
-        <v>0.4872875603050415</v>
+        <v>0.48946918985772758</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -2226,25 +2226,25 @@
         <v>0.56565656565656564</v>
       </c>
       <c r="D58">
-        <v>0.65677695363712152</v>
+        <v>0.65577202785551059</v>
       </c>
       <c r="E58">
         <v>0.56565656565656564</v>
       </c>
       <c r="F58">
-        <v>0.40232923967596157</v>
+        <v>0.40413050330484906</v>
       </c>
       <c r="G58">
         <v>0.56565656565656564</v>
       </c>
       <c r="H58">
-        <v>0.59219616659967234</v>
+        <v>0.59129005503121435</v>
       </c>
       <c r="I58">
         <v>0.56565656565656564</v>
       </c>
       <c r="J58">
-        <v>0.50008010489452903</v>
+        <v>0.50231900780201411</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -2258,25 +2258,25 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="D59">
-        <v>0.66613510982792212</v>
+        <v>0.66511586525456234</v>
       </c>
       <c r="E59">
         <v>0.5757575757575758</v>
       </c>
       <c r="F59">
-        <v>0.41214200207446861</v>
+        <v>0.41398719830945147</v>
       </c>
       <c r="G59">
         <v>0.5757575757575758</v>
       </c>
       <c r="H59">
-        <v>0.60084359178857394</v>
+        <v>0.59992424890852869</v>
       </c>
       <c r="I59">
         <v>0.5757575757575758</v>
       </c>
       <c r="J59">
-        <v>0.51307707312007289</v>
+        <v>0.51537416460507546</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -2290,25 +2290,25 @@
         <v>0.58585858585858586</v>
       </c>
       <c r="D60">
-        <v>0.67542714681356286</v>
+        <v>0.67439368461658089</v>
       </c>
       <c r="E60">
         <v>0.58585858585858586</v>
       </c>
       <c r="F60">
-        <v>0.42208153726685671</v>
+        <v>0.4239712336809579</v>
       </c>
       <c r="G60">
         <v>0.58585858585858586</v>
       </c>
       <c r="H60">
-        <v>0.60943588879658084</v>
+        <v>0.60850339895585326</v>
       </c>
       <c r="I60">
         <v>0.58585858585858586</v>
       </c>
       <c r="J60">
-        <v>0.52628340445296895</v>
+        <v>0.52863962185265811</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -2322,25 +2322,25 @@
         <v>0.59595959595959591</v>
       </c>
       <c r="D61">
-        <v>0.68465376286613999</v>
+        <v>0.68360618314524546</v>
       </c>
       <c r="E61">
         <v>0.59595959595959591</v>
       </c>
       <c r="F61">
-        <v>0.43215031792541814</v>
+        <v>0.43408509316203325</v>
       </c>
       <c r="G61">
         <v>0.59595959595959591</v>
       </c>
       <c r="H61">
-        <v>0.61797358311996187</v>
+        <v>0.61702802986540162</v>
       </c>
       <c r="I61">
         <v>0.59595959595959591</v>
       </c>
       <c r="J61">
-        <v>0.53970419879269671</v>
+        <v>0.54212050227694297</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -2354,25 +2354,25 @@
         <v>0.60606060606060608</v>
       </c>
       <c r="D62">
-        <v>0.69381564645981919</v>
+        <v>0.69275404826129627</v>
       </c>
       <c r="E62">
         <v>0.60606060606060608</v>
       </c>
       <c r="F62">
-        <v>0.44235088144842261</v>
+        <v>0.44433132551110399</v>
       </c>
       <c r="G62">
         <v>0.60606060606060608</v>
       </c>
       <c r="H62">
-        <v>0.62645719359724872</v>
+        <v>0.6254986596818376</v>
       </c>
       <c r="I62">
         <v>0.60606060606060608</v>
       </c>
       <c r="J62">
-        <v>0.55334472303338222</v>
+        <v>0.55582209635240731</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -2386,25 +2386,25 @@
         <v>0.61616161616161613</v>
       </c>
       <c r="D63">
-        <v>0.70291347644208768</v>
+        <v>0.70183795777352487</v>
       </c>
       <c r="E63">
         <v>0.61616161616161613</v>
       </c>
       <c r="F63">
-        <v>0.45268583209194568</v>
+        <v>0.45471254664373073</v>
       </c>
       <c r="G63">
         <v>0.61616161616161613</v>
       </c>
       <c r="H63">
-        <v>0.63488723251434065</v>
+        <v>0.63391579990721858</v>
       </c>
       <c r="I63">
         <v>0.61616161616161613</v>
       </c>
       <c r="J63">
-        <v>0.56721041795545035</v>
+        <v>0.56974986921833171</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -2418,25 +2418,25 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="D64">
-        <v>0.71194792220142444</v>
+        <v>0.71085858004618829</v>
       </c>
       <c r="E64">
         <v>0.6262626262626263</v>
       </c>
       <c r="F64">
-        <v>0.46315784318651254</v>
+        <v>0.46523144185917614</v>
       </c>
       <c r="G64">
         <v>0.6262626262626263</v>
       </c>
       <c r="H64">
-        <v>0.64326420570762466</v>
+        <v>0.64227995560395823</v>
       </c>
       <c r="I64">
         <v>0.6262626262626263</v>
       </c>
       <c r="J64">
-        <v>0.58130690546140973</v>
+        <v>0.58390946794698018</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
@@ -2450,25 +2450,25 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="D65">
-        <v>0.72091964383148111</v>
+        <v>0.71981657416293676</v>
       </c>
       <c r="E65">
         <v>0.63636363636363635</v>
       </c>
       <c r="F65">
-        <v>0.47376965944251964</v>
+        <v>0.47589076815614823</v>
       </c>
       <c r="G65">
         <v>0.63636363636363635</v>
       </c>
       <c r="H65">
-        <v>0.65158861266515278</v>
+        <v>0.65059162549584793</v>
       </c>
       <c r="I65">
         <v>0.63636363636363635</v>
       </c>
       <c r="J65">
-        <v>0.59563999617598273</v>
+        <v>0.59830672917775662</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -2482,25 +2482,25 @@
         <v>0.64646464646464652</v>
       </c>
       <c r="D66">
-        <v>0.72982929229185289</v>
+        <v>0.72871259008734135</v>
       </c>
       <c r="E66">
         <v>0.64646464646464652</v>
       </c>
       <c r="F66">
-        <v>0.48452409934861429</v>
+        <v>0.48669335664191732</v>
       </c>
       <c r="G66">
         <v>0.64646464646464652</v>
       </c>
       <c r="H66">
-        <v>0.65986094662592154</v>
+        <v>0.65885130206718601</v>
       </c>
       <c r="I66">
         <v>0.64646464646464652</v>
       </c>
       <c r="J66">
-        <v>0.61021569743217297</v>
+        <v>0.61294768713902614</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -2514,25 +2514,25 @@
         <v>0.65656565656565657</v>
       </c>
       <c r="D67">
-        <v>0.7386775095655248</v>
+        <v>0.73754726882009691</v>
       </c>
       <c r="E67">
         <v>0.65656565656565657</v>
       </c>
       <c r="F67">
-        <v>0.49542405766742764</v>
+        <v>0.49764211503922329</v>
       </c>
       <c r="G67">
         <v>0.65656565656565657</v>
       </c>
       <c r="H67">
-        <v>0.66808169467729472</v>
+        <v>0.66705947166005031</v>
       </c>
       <c r="I67">
         <v>0.65656565656565657</v>
       </c>
       <c r="J67">
-        <v>0.62504022166632056</v>
+        <v>0.62783858208075649</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -2546,25 +2546,25 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D68">
-        <v>0.74746492881307192</v>
+        <v>0.74632124255298848</v>
       </c>
       <c r="E68">
         <v>0.66666666666666663</v>
       </c>
       <c r="F68">
-        <v>0.50647250803331145</v>
+        <v>0.50874003029564219</v>
       </c>
       <c r="G68">
         <v>0.66666666666666663</v>
       </c>
       <c r="H68">
-        <v>0.67625133785060776</v>
+        <v>0.67521661456975635</v>
       </c>
       <c r="I68">
         <v>0.66666666666666663</v>
       </c>
       <c r="J68">
-        <v>0.64011999524680074</v>
+        <v>0.64298586914274314</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -2578,25 +2578,25 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="D69">
-        <v>0.75619217452369381</v>
+        <v>0.7550351348196922</v>
       </c>
       <c r="E69">
         <v>0.6767676767676768</v>
       </c>
       <c r="F69">
-        <v>0.51767250565696832</v>
+        <v>0.51999017130032532</v>
       </c>
       <c r="G69">
         <v>0.6767676767676768</v>
       </c>
       <c r="H69">
-        <v>0.68437035121499579</v>
+        <v>0.68332320513854228</v>
       </c>
       <c r="I69">
         <v>0.6767676767676768</v>
       </c>
       <c r="J69">
-        <v>0.65546166776271941</v>
+        <v>0.65839622768489114</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -2610,25 +2610,25 @@
         <v>0.68686868686868685</v>
       </c>
       <c r="D70">
-        <v>0.76485986266315231</v>
+        <v>0.76368956064348936</v>
       </c>
       <c r="E70">
         <v>0.68686868686868685</v>
       </c>
       <c r="F70">
-        <v>0.5290271901421455</v>
+        <v>0.53139569171330414</v>
       </c>
       <c r="G70">
         <v>0.68686868686868685</v>
       </c>
       <c r="H70">
-        <v>0.69243920396948222</v>
+        <v>0.69137971184751656</v>
       </c>
       <c r="I70">
         <v>0.68686868686868685</v>
       </c>
       <c r="J70">
-        <v>0.67107212180081299</v>
+        <v>0.67407657110788732</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
@@ -2642,25 +2642,25 @@
         <v>0.69696969696969702</v>
       </c>
       <c r="D71">
-        <v>0.77346860081869739</v>
+        <v>0.77228512668196836</v>
       </c>
       <c r="E71">
         <v>0.69696969696969702</v>
       </c>
       <c r="F71">
-        <v>0.54053978841985018</v>
+        <v>0.54295983291284144</v>
       </c>
       <c r="G71">
         <v>0.69696969696969702</v>
       </c>
       <c r="H71">
-        <v>0.70045835953336621</v>
+        <v>0.69938659740690623</v>
       </c>
       <c r="I71">
         <v>0.69696969696969702</v>
       </c>
       <c r="J71">
-        <v>0.68695848324075903</v>
+        <v>0.69003405719460309</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -2674,25 +2674,25 @@
         <v>0.70707070707070707</v>
       </c>
       <c r="D72">
-        <v>0.78201898834103933</v>
+        <v>0.78082243136878082</v>
       </c>
       <c r="E72">
         <v>0.70707070707070707</v>
       </c>
       <c r="F72">
-        <v>0.55221361780583911</v>
+        <v>0.55468592706661057</v>
       </c>
       <c r="G72">
         <v>0.70707070707070707</v>
       </c>
       <c r="H72">
-        <v>0.70842827563494382</v>
+        <v>0.70734431884464344</v>
       </c>
       <c r="I72">
         <v>0.70707070707070707</v>
       </c>
       <c r="J72">
-        <v>0.70312813210124203</v>
+        <v>0.70627609900472044</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -2706,25 +2706,25 @@
         <v>0.71717171717171713</v>
       </c>
       <c r="D73">
-        <v>0.79051161648344914</v>
+        <v>0.78930206505252898</v>
       </c>
       <c r="E73">
         <v>0.71717171717171713</v>
       </c>
       <c r="F73">
-        <v>0.56405208918747662</v>
+        <v>0.56657740033282045</v>
       </c>
       <c r="G73">
         <v>0.71717171717171713</v>
       </c>
       <c r="H73">
-        <v>0.71634940439860217</v>
+        <v>0.71525332759332561</v>
       </c>
       <c r="I73">
         <v>0.71717171717171713</v>
       </c>
       <c r="J73">
-        <v>0.71958871397146984</v>
+        <v>0.72281037635742695</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -2738,25 +2738,25 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="D74">
-        <v>0.7989470685380462</v>
+        <v>0.79772461013284468</v>
       </c>
       <c r="E74">
         <v>0.72727272727272729</v>
       </c>
       <c r="F74">
-        <v>0.57605871034638501</v>
+        <v>0.57863777619774226</v>
       </c>
       <c r="G74">
         <v>0.72727272727272729</v>
       </c>
       <c r="H74">
-        <v>0.72422219243031627</v>
+        <v>0.72311406957558211</v>
       </c>
       <c r="I74">
         <v>0.72727272727272729</v>
       </c>
       <c r="J74">
-        <v>0.73634815206533433</v>
+        <v>0.73964484793954444</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
@@ -2770,25 +2770,25 @@
         <v>0.73737373737373735</v>
       </c>
       <c r="D75">
-        <v>0.807325919969344</v>
+        <v>0.80609064119373042</v>
       </c>
       <c r="E75">
         <v>0.73737373737373735</v>
       </c>
       <c r="F75">
-        <v>0.58823708942368969</v>
+        <v>0.59087067895646872</v>
       </c>
       <c r="G75">
         <v>0.73737373737373735</v>
       </c>
       <c r="H75">
-        <v>0.73204708090158788</v>
+        <v>0.73092698528788347</v>
       </c>
       <c r="I75">
         <v>0.73737373737373735</v>
       </c>
       <c r="J75">
-        <v>0.7534146599381476</v>
+        <v>0.75678776407919945</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -2802,25 +2802,25 @@
         <v>0.74747474747474751</v>
       </c>
       <c r="D76">
-        <v>0.81564873854511566</v>
+        <v>0.8144007251342259</v>
       </c>
       <c r="E76">
         <v>0.74747474747474751</v>
       </c>
       <c r="F76">
-        <v>0.60059093853505086</v>
+        <v>0.60327983734413049</v>
       </c>
       <c r="G76">
         <v>0.74747474747474751</v>
       </c>
       <c r="H76">
-        <v>0.73982450563185509</v>
+        <v>0.73869250988282664</v>
       </c>
       <c r="I76">
         <v>0.74747474747474751</v>
       </c>
       <c r="J76">
-        <v>0.77079675490884048</v>
+        <v>0.77424768022811385</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -2834,25 +2834,25 @@
         <v>0.75757575757575757</v>
       </c>
       <c r="D77">
-        <v>0.82391608446464482</v>
+        <v>0.82265542129646063</v>
       </c>
       <c r="E77">
         <v>0.75757575757575757</v>
       </c>
       <c r="F77">
-        <v>0.61312407754308662</v>
+        <v>0.61586908832520892</v>
       </c>
       <c r="G77">
         <v>0.75757575757575757</v>
       </c>
       <c r="H77">
-        <v>0.74755489716940748</v>
+        <v>0.74641107324992473</v>
       </c>
       <c r="I77">
         <v>0.75757575757575757</v>
       </c>
       <c r="J77">
-        <v>0.78850327223369865</v>
+        <v>0.79203347119879819</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -2866,25 +2866,25 @@
         <v>0.76767676767676762</v>
       </c>
       <c r="D78">
-        <v>0.83212851048441727</v>
+        <v>0.83085528159115529</v>
       </c>
       <c r="E78">
         <v>0.76767676767676762</v>
       </c>
       <c r="F78">
-        <v>0.62584043799524469</v>
+        <v>0.62864238104903769</v>
       </c>
       <c r="G78">
         <v>0.76767676767676762</v>
       </c>
       <c r="H78">
-        <v>0.75523868087083801</v>
+        <v>0.7540831000949384</v>
       </c>
       <c r="I78">
         <v>0.76767676767676762</v>
       </c>
       <c r="J78">
-        <v>0.80654338008120208</v>
+        <v>0.81015434620643412</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -2898,25 +2898,25 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D79">
-        <v>0.84028656204131924</v>
+        <v>0.83900085062063023</v>
       </c>
       <c r="E79">
         <v>0.77777777777777779</v>
       </c>
       <c r="F79">
-        <v>0.63874406723564747</v>
+        <v>0.64160378098005721</v>
       </c>
       <c r="G79">
         <v>0.77777777777777779</v>
       </c>
       <c r="H79">
-        <v>0.76287627697906257</v>
+        <v>0.76170901001777502</v>
       </c>
       <c r="I79">
         <v>0.77777777777777779</v>
       </c>
       <c r="J79">
-        <v>0.8249265953612881</v>
+        <v>0.82861986476900762</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -2930,25 +2930,25 @@
         <v>0.78787878787878785</v>
       </c>
       <c r="D80">
-        <v>0.84839077737339441</v>
+        <v>0.84709266579937814</v>
       </c>
       <c r="E80">
         <v>0.78787878787878785</v>
       </c>
       <c r="F80">
-        <v>0.65183913269994487</v>
+        <v>0.65475747421189567</v>
       </c>
       <c r="G80">
         <v>0.78787878787878785</v>
       </c>
       <c r="H80">
-        <v>0.77046810069993377</v>
+        <v>0.7692892175889865</v>
       </c>
       <c r="I80">
         <v>0.78787878787878785</v>
       </c>
       <c r="J80">
-        <v>0.84366280046646236</v>
+        <v>0.84743995352337054</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -2962,25 +2962,25 @@
         <v>0.79797979797979801</v>
       </c>
       <c r="D81">
-        <v>0.85644168763821971</v>
+        <v>0.85513125747225871</v>
       </c>
       <c r="E81">
         <v>0.79797979797979801</v>
       </c>
       <c r="F81">
-        <v>0.66512992640275004</v>
+        <v>0.66810777197489601</v>
       </c>
       <c r="G81">
         <v>0.79797979797979801</v>
       </c>
       <c r="H81">
-        <v>0.77801456227748667</v>
+        <v>0.77682413242489867</v>
       </c>
       <c r="I81">
         <v>0.79797979797979801</v>
       </c>
       <c r="J81">
-        <v>0.86276226098663633</v>
+        <v>0.86662492401938929</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -2994,25 +2994,25 @@
         <v>0.80808080808080807</v>
       </c>
       <c r="D82">
-        <v>0.86443981702895167</v>
+        <v>0.8631171490303674</v>
       </c>
       <c r="E82">
         <v>0.80808080808080807</v>
       </c>
       <c r="F82">
-        <v>0.67862086962780721</v>
+        <v>0.68165911534728096</v>
       </c>
       <c r="G82">
         <v>0.80808080808080807</v>
       </c>
       <c r="H82">
-        <v>0.78551606706783483</v>
+        <v>0.78431415926139514</v>
       </c>
       <c r="I82">
         <v>0.80808080808080807</v>
       </c>
       <c r="J82">
-        <v>0.88223564446440861</v>
+        <v>0.88618549155919546</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -3026,25 +3026,25 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="D83">
-        <v>0.87238568288809859</v>
+        <v>0.8710508570246337</v>
       </c>
       <c r="E83">
         <v>0.81818181818181823</v>
       </c>
       <c r="F83">
-        <v>0.6923165178316576</v>
+        <v>0.69541608018077405</v>
       </c>
       <c r="G83">
         <v>0.81818181818181823</v>
       </c>
       <c r="H83">
-        <v>0.79297301561175182</v>
+        <v>0.79175969802638735</v>
       </c>
       <c r="I83">
         <v>0.81818181818181823</v>
       </c>
       <c r="J83">
-        <v>0.90209404026279116</v>
+        <v>0.9061327951538608</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -3058,25 +3058,25 @@
         <v>0.82828282828282829</v>
       </c>
       <c r="D84">
-        <v>0.88027979581906923</v>
+        <v>0.87893289127719854</v>
       </c>
       <c r="E84">
         <v>0.82828282828282829</v>
       </c>
       <c r="F84">
-        <v>0.70622156577223005</v>
+        <v>0.70938338225215092</v>
       </c>
       <c r="G84">
         <v>0.82828282828282829</v>
       </c>
       <c r="H84">
-        <v>0.80038580370596413</v>
+        <v>0.79916114391099824</v>
       </c>
       <c r="I84">
         <v>0.82828282828282829</v>
       </c>
       <c r="J84">
-        <v>0.92234898062312687</v>
+        <v>0.92647841867559344</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -3090,25 +3090,25 @@
         <v>0.83838383838383834</v>
       </c>
       <c r="D85">
-        <v>0.88812265979554939</v>
+        <v>0.88676375499062454</v>
       </c>
       <c r="E85">
         <v>0.83838383838383834</v>
       </c>
       <c r="F85">
-        <v>0.72034085287448468</v>
+        <v>0.72356588265290611</v>
       </c>
       <c r="G85">
         <v>0.83838383838383834</v>
       </c>
       <c r="H85">
-        <v>0.8077548224731782</v>
+        <v>0.80651888743948286</v>
       </c>
       <c r="I85">
         <v>0.83838383838383834</v>
       </c>
       <c r="J85">
-        <v>0.94301246299722263</v>
+        <v>0.94723441328985514</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -3122,25 +3122,25 @@
         <v>0.84848484848484851</v>
       </c>
       <c r="D86">
-        <v>0.89591477226875593</v>
+        <v>0.89454394485498456</v>
       </c>
       <c r="E86">
         <v>0.84848484848484851</v>
       </c>
       <c r="F86">
-        <v>0.73467936884599294</v>
+        <v>0.73796859342997323</v>
       </c>
       <c r="G86">
         <v>0.84848484848484851</v>
       </c>
       <c r="H86">
-        <v>0.81508045843087451</v>
+        <v>0.81383331453791585</v>
       </c>
       <c r="I86">
         <v>0.84848484848484851</v>
       </c>
       <c r="J86">
-        <v>0.96409697374456682</v>
+        <v>0.96841332125867041</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -3154,25 +3154,25 @@
         <v>0.85858585858585856</v>
       </c>
       <c r="D87">
-        <v>0.90365662427261151</v>
+        <v>0.90227395115287712</v>
       </c>
       <c r="E87">
         <v>0.85858585858585856</v>
       </c>
       <c r="F87">
-        <v>0.74924225955613866</v>
+        <v>0.75259668349124942</v>
       </c>
       <c r="G87">
         <v>0.85858585858585856</v>
       </c>
       <c r="H87">
-        <v>0.82236309355888604</v>
+        <v>0.82110480660166851</v>
       </c>
       <c r="I87">
         <v>0.85858585858585856</v>
       </c>
       <c r="J87">
-        <v>0.98561551329297792</v>
+        <v>0.99002820121392487</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -3186,25 +3186,25 @@
         <v>0.86868686868686873</v>
       </c>
       <c r="D88">
-        <v>0.91134870052689754</v>
+        <v>0.90995425786242001</v>
       </c>
       <c r="E88">
         <v>0.86868686868686873</v>
       </c>
       <c r="F88">
-        <v>0.76403483319350196</v>
+        <v>0.76745548479054471</v>
       </c>
       <c r="G88">
         <v>0.86868686868686873</v>
       </c>
       <c r="H88">
-        <v>0.82960310536579529</v>
+        <v>0.82833374056170184</v>
       </c>
       <c r="I88">
         <v>0.86868686868686873</v>
       </c>
       <c r="J88">
-        <v>1.0075816228692309</v>
+        <v>1.0120926550076643</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -3218,25 +3218,25 @@
         <v>0.87878787878787878</v>
       </c>
       <c r="D89">
-        <v>0.91899147953841609</v>
+        <v>0.91758534275825854</v>
       </c>
       <c r="E89">
         <v>0.87878787878787878</v>
       </c>
       <c r="F89">
-        <v>0.77906256671689</v>
+        <v>0.78255049880749583</v>
       </c>
       <c r="G89">
         <v>0.87878787878787878</v>
       </c>
       <c r="H89">
-        <v>0.83680086695416223</v>
+        <v>0.83552048894969688</v>
       </c>
       <c r="I89">
         <v>0.87878787878787878</v>
       </c>
       <c r="J89">
-        <v>1.0300094129151351</v>
+        <v>1.0346208562553956</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -3250,25 +3250,25 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D90">
-        <v>0.92658543370021973</v>
+        <v>0.92516767751064277</v>
       </c>
       <c r="E90">
         <v>0.88888888888888884</v>
       </c>
       <c r="F90">
-        <v>0.79433111261650013</v>
+        <v>0.79788740333899943</v>
       </c>
       <c r="G90">
         <v>0.88888888888888884</v>
       </c>
       <c r="H90">
-        <v>0.84395674708462143</v>
+        <v>0.84266541996205235</v>
       </c>
       <c r="I90">
         <v>0.88888888888888884</v>
       </c>
       <c r="J90">
-        <v>1.0529135933143865</v>
+        <v>1.0576275806982662</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -3282,25 +3282,25 @@
         <v>0.89898989898989901</v>
       </c>
       <c r="D91">
-        <v>0.93413102938894121</v>
+        <v>0.93270172778260863</v>
       </c>
       <c r="E91">
         <v>0.89898989898989901</v>
       </c>
       <c r="F91">
-        <v>0.80984630600273499</v>
+        <v>0.81347205961976399</v>
       </c>
       <c r="G91">
         <v>0.89898989898989901</v>
       </c>
       <c r="H91">
-        <v>0.85107111023885607</v>
+        <v>0.84976889752276286</v>
       </c>
       <c r="I91">
         <v>0.89898989898989901</v>
       </c>
       <c r="J91">
-        <v>1.0763095055662393</v>
+        <v>1.0811282385207814</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -3314,25 +3314,25 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="D92">
-        <v>0.94162872706027156</v>
+        <v>0.94018795332531002</v>
       </c>
       <c r="E92">
         <v>0.90909090909090906</v>
       </c>
       <c r="F92">
-        <v>0.82561417204135612</v>
+        <v>0.82931051979075143</v>
       </c>
       <c r="G92">
         <v>0.90909090909090906</v>
       </c>
       <c r="H92">
-        <v>0.85814431668148472</v>
+        <v>0.85683128134521036</v>
       </c>
       <c r="I92">
         <v>0.90909090909090906</v>
       </c>
       <c r="J92">
-        <v>1.1002131570538869</v>
+        <v>1.1051389087726058</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -3346,25 +3346,25 @@
         <v>0.91919191919191923</v>
       </c>
       <c r="D93">
-        <v>0.94907898134262503</v>
+        <v>0.94762680807154032</v>
       </c>
       <c r="E93">
         <v>0.91919191919191923</v>
       </c>
       <c r="F93">
-        <v>0.84164093375487414</v>
+        <v>0.84540903473549545</v>
       </c>
       <c r="G93">
         <v>0.91919191919191923</v>
       </c>
       <c r="H93">
-        <v>0.86517672252087363</v>
+        <v>0.86385292699288485</v>
       </c>
       <c r="I93">
         <v>0.91919191919191923</v>
       </c>
       <c r="J93">
-        <v>1.1246412575684002</v>
+        <v>1.1296763760560244</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -3378,25 +3378,25 @@
         <v>0.92929292929292928</v>
       </c>
       <c r="D94">
-        <v>0.95648224112903302</v>
+        <v>0.95501874022748556</v>
       </c>
       <c r="E94">
         <v>0.92929292929292928</v>
       </c>
       <c r="F94">
-        <v>0.85793302021139717</v>
+        <v>0.86177406230561093</v>
       </c>
       <c r="G94">
         <v>0.92929292929292928</v>
       </c>
       <c r="H94">
-        <v>0.87216867976890144</v>
+        <v>0.87083418593905604</v>
       </c>
       <c r="I94">
         <v>0.92929292929292928</v>
       </c>
       <c r="J94">
-        <v>1.1496112582633451</v>
+        <v>1.1547581696549634</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -3410,25 +3410,25 @@
         <v>0.93939393939393945</v>
       </c>
       <c r="D95">
-        <v>0.96383894966730221</v>
+        <v>0.96236419236274429</v>
       </c>
       <c r="E95">
         <v>0.93939393939393945</v>
       </c>
       <c r="F95">
-        <v>0.87449707512357655</v>
+        <v>0.87841227595823934</v>
       </c>
       <c r="G95">
         <v>0.93939393939393945</v>
       </c>
       <c r="H95">
-        <v>0.87912053639969534</v>
+        <v>0.87777540562542045</v>
       </c>
       <c r="I95">
         <v>0.93939393939393945</v>
       </c>
       <c r="J95">
-        <v>1.1751413932309309</v>
+        <v>1.1804026052972771</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -3442,25 +3442,25 @@
         <v>0.9494949494949495</v>
       </c>
       <c r="D96">
-        <v>0.97114954464847869</v>
+        <v>0.96966360149865816</v>
       </c>
       <c r="E96">
         <v>0.9494949494949495</v>
       </c>
       <c r="F96">
-        <v>0.89133996588180942</v>
+        <v>0.89533057382969261</v>
       </c>
       <c r="G96">
         <v>0.9494949494949495</v>
       </c>
       <c r="H96">
-        <v>0.88603263640735885</v>
+        <v>0.88467692951974097</v>
       </c>
       <c r="I96">
         <v>0.9494949494949495</v>
       </c>
       <c r="J96">
-        <v>1.2012507239078336</v>
+        <v>1.2066288297593812</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -3474,25 +3474,25 @@
         <v>0.95959595959595956</v>
       </c>
       <c r="D97">
-        <v>0.97841445829365414</v>
+        <v>0.97691739919498255</v>
       </c>
       <c r="E97">
         <v>0.95959595959595956</v>
       </c>
       <c r="F97">
-        <v>0.90846879304750516</v>
+        <v>0.91253608827122212</v>
       </c>
       <c r="G97">
         <v>0.95959595959595956</v>
       </c>
       <c r="H97">
-        <v>0.89290531986271238</v>
+        <v>0.89153909717249991</v>
       </c>
       <c r="I97">
         <v>0.95959595959595956</v>
       </c>
       <c r="J97">
-        <v>1.2279591865379726</v>
+        <v>1.2334568685415241</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -3506,25 +3506,25 @@
         <v>0.96969696969696972</v>
       </c>
       <c r="D98">
-        <v>0.98563411743914942</v>
+        <v>0.98412601163494162</v>
       </c>
       <c r="E98">
         <v>0.96969696969696972</v>
       </c>
       <c r="F98">
-        <v>0.92589090033398191</v>
+        <v>0.93003619587460118</v>
       </c>
       <c r="G98">
         <v>0.96969696969696972</v>
       </c>
       <c r="H98">
-        <v>0.89973892296906743</v>
+        <v>0.89836224427258848</v>
       </c>
       <c r="I98">
         <v>0.96969696969696972</v>
       </c>
       <c r="J98">
-        <v>1.2552876429405997</v>
+        <v>1.2609076768631697</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
@@ -3538,25 +3538,25 @@
         <v>0.97979797979797978</v>
       </c>
       <c r="D99">
-        <v>0.99280894362010963</v>
+        <v>0.99128985970869543</v>
       </c>
       <c r="E99">
         <v>0.97979797979797978</v>
       </c>
       <c r="F99">
-        <v>0.94361388510446875</v>
+        <v>0.9478385280171262</v>
       </c>
       <c r="G99">
         <v>0.97979797979797978</v>
       </c>
       <c r="H99">
-        <v>0.90653377811704805</v>
+        <v>0.90514670270204445</v>
       </c>
       <c r="I99">
         <v>0.97979797979797978</v>
       </c>
       <c r="J99">
-        <v>1.2832579348553994</v>
+        <v>1.2890031942514055</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
@@ -3570,25 +3570,25 @@
         <v>0.98989898989898994</v>
       </c>
       <c r="D100">
-        <v>0.99993935315254978</v>
+        <v>0.99840935909525885</v>
       </c>
       <c r="E100">
         <v>0.98989898989898994</v>
       </c>
       <c r="F100">
-        <v>0.96164560941874455</v>
+        <v>0.96595098195771401</v>
       </c>
       <c r="G100">
         <v>0.98989898989898994</v>
       </c>
       <c r="H100">
-        <v>0.91329021393848642</v>
+        <v>0.91189280058986444</v>
       </c>
       <c r="I100">
         <v>0.98989898989898994</v>
       </c>
       <c r="J100">
-        <v>1.3118929421621395</v>
+        <v>1.3177664030212461</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
@@ -3602,25 +3602,25 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1.0070257572138783</v>
+        <v>1.0054849203429037</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>0.97999421166215495</v>
+        <v>0.98438173251798211</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0.92000855535940596</v>
+        <v>0.91860086236490701</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101">
-        <v>1.3412166453010061</v>
+        <v>1.347221390975432</v>
       </c>
     </row>
   </sheetData>

--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_5.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_5.xlsx
@@ -466,25 +466,25 @@
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="D3">
-        <v>1.4559173121527451E-2</v>
+        <v>1.4837268948200066E-2</v>
       </c>
       <c r="E3">
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="F3">
-        <v>5.3426893983661685E-3</v>
+        <v>5.0458700305491475E-3</v>
       </c>
       <c r="G3">
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="H3">
-        <v>1.2820864439431761E-2</v>
+        <v>1.306575670530292E-2</v>
       </c>
       <c r="I3">
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="J3">
-        <v>6.2466622310855969E-3</v>
+        <v>5.8996215936560096E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -498,25 +498,25 @@
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="D4">
-        <v>2.8990110698068595E-2</v>
+        <v>2.9543852914924947E-2</v>
       </c>
       <c r="E4">
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="F4">
-        <v>1.0736066370078463E-2</v>
+        <v>1.0139611626933038E-2</v>
       </c>
       <c r="G4">
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="H4">
-        <v>2.5542234616648781E-2</v>
+        <v>2.6030118701238718E-2</v>
       </c>
       <c r="I4">
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="J4">
-        <v>1.2562671258789071E-2</v>
+        <v>1.1864737341412713E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -530,25 +530,25 @@
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="D5">
-        <v>4.329449952725848E-2</v>
+        <v>4.412147091745422E-2</v>
       </c>
       <c r="E5">
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="F5">
-        <v>1.6180855683737422E-2</v>
+        <v>1.5281909292383638E-2</v>
       </c>
       <c r="G5">
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="H5">
-        <v>3.8165264219044925E-2</v>
+        <v>3.8894261711868237E-2</v>
       </c>
       <c r="I5">
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="J5">
-        <v>1.894918830015313E-2</v>
+        <v>1.7896443947539791E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -562,25 +562,25 @@
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="D6">
-        <v>5.7473996951922443E-2</v>
+        <v>5.8571811955639319E-2</v>
       </c>
       <c r="E6">
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="F6">
-        <v>2.1677795991824525E-2</v>
+        <v>2.0473460642678569E-2</v>
       </c>
       <c r="G6">
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="H6">
-        <v>5.0691089165888811E-2</v>
+        <v>5.1659343353736821E-2</v>
       </c>
       <c r="I6">
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="J6">
-        <v>2.5407400643960867E-2</v>
+        <v>2.3995862739601227E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -594,25 +594,25 @@
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="D7">
-        <v>7.1530231500205294E-2</v>
+        <v>7.2896535664259784E-2</v>
       </c>
       <c r="E7">
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="F7">
-        <v>2.7227640164756602E-2</v>
+        <v>2.5714976721636772E-2</v>
       </c>
       <c r="G7">
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="H7">
-        <v>6.3120827949073935E-2</v>
+        <v>6.432650348313311E-2</v>
       </c>
       <c r="I7">
         <v>5.0505050505050504E-2</v>
       </c>
       <c r="J7">
-        <v>3.1938522386572042E-2</v>
+        <v>3.0164140363411363E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -626,25 +626,25 @@
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="D8">
-        <v>8.5464803509078952E-2</v>
+        <v>8.7097272948440649E-2</v>
       </c>
       <c r="E8">
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="F8">
-        <v>3.2831155634632035E-2</v>
+        <v>3.1007182325767445E-2</v>
       </c>
       <c r="G8">
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="H8">
-        <v>7.54555819660572E-2</v>
+        <v>7.6896864535387105E-2</v>
       </c>
       <c r="I8">
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="J8">
-        <v>3.8543795192822417E-2</v>
+        <v>3.6402449501661535E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -658,25 +658,25 @@
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="D9">
-        <v>9.9279285731729464E-2</v>
+        <v>0.10117562660264118</v>
       </c>
       <c r="E9">
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="F9">
-        <v>3.8489124748998238E-2</v>
+        <v>3.6350816338383586E-2</v>
       </c>
       <c r="G9">
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="H9">
-        <v>8.7696435845193668E-2</v>
+        <v>8.9371531856419092E-2</v>
       </c>
       <c r="I9">
         <v>7.0707070707070704E-2</v>
       </c>
       <c r="J9">
-        <v>4.5224489082987575E-2</v>
+        <v>4.2711989617163271E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -690,25 +690,25 @@
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="D10">
-        <v>0.11297522392930802</v>
+        <v>0.11513317191370898</v>
       </c>
       <c r="E10">
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="F10">
-        <v>4.4202345134982959E-2</v>
+        <v>4.1746632073503542E-2</v>
       </c>
       <c r="G10">
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="H10">
-        <v>9.9844457763669597E-2</v>
+        <v>0.10175159402674562</v>
       </c>
       <c r="I10">
         <v>8.0808080808080815E-2</v>
       </c>
       <c r="J10">
-        <v>5.1981903246858953E-2</v>
+        <v>4.9093987721697298E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -722,25 +722,25 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="D11">
-        <v>0.1265541374475132</v>
+        <v>0.12897145724847547</v>
       </c>
       <c r="E11">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="F11">
-        <v>4.9971630074145387E-2</v>
+        <v>4.7195397629876824E-2</v>
       </c>
       <c r="G11">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="H11">
-        <v>0.11190069975822933</v>
+        <v>0.11403812317814152</v>
       </c>
       <c r="I11">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="J11">
-        <v>5.8817366886028045E-2</v>
+        <v>5.5549699171503701E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -754,25 +754,25 @@
         <v>0.10101010101010101</v>
       </c>
       <c r="D12">
-        <v>0.14001751977845633</v>
+        <v>0.14269200462635365</v>
       </c>
       <c r="E12">
         <v>0.10101010101010101</v>
       </c>
       <c r="F12">
-        <v>5.5797808888417177E-2</v>
+        <v>5.2697896255483725E-2</v>
       </c>
       <c r="G12">
         <v>0.10101010101010101</v>
       </c>
       <c r="H12">
-        <v>0.12386619802888603</v>
+        <v>0.12623217530315192</v>
       </c>
       <c r="I12">
         <v>0.10101010101010101</v>
       </c>
       <c r="J12">
-        <v>6.5732240085525917E-2</v>
+        <v>6.2080408490496473E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -786,25 +786,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D13">
-        <v>0.1533668391082465</v>
+        <v>0.15629631027738244</v>
       </c>
       <c r="E13">
         <v>0.1111111111111111</v>
       </c>
       <c r="F13">
-        <v>6.1681727337517735E-2</v>
+        <v>5.825492672287174E-2</v>
       </c>
       <c r="G13">
         <v>0.1111111111111111</v>
       </c>
       <c r="H13">
-        <v>0.13574197323580028</v>
+        <v>0.1383347905576415</v>
       </c>
       <c r="I13">
         <v>0.1111111111111111</v>
       </c>
       <c r="J13">
-        <v>7.2727914716018333E-2</v>
+        <v>6.8687430222336143E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -818,25 +818,25 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="D14">
-        <v>0.16660353885071638</v>
+        <v>0.16978584518614734</v>
       </c>
       <c r="E14">
         <v>0.12121212121212122</v>
       </c>
       <c r="F14">
-        <v>6.7624248028244086E-2</v>
+        <v>6.3867303715706841E-2</v>
       </c>
       <c r="G14">
         <v>0.12121212121212122</v>
       </c>
       <c r="H14">
-        <v>0.14752903078950511</v>
+        <v>0.15034699355656317</v>
       </c>
       <c r="I14">
         <v>0.12121212121212122</v>
       </c>
       <c r="J14">
-        <v>7.9805815367813698E-2</v>
+        <v>7.5372109812547786E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -850,25 +850,25 @@
         <v>0.13131313131313133</v>
       </c>
       <c r="D15">
-        <v>0.179729038167697</v>
+        <v>0.18316205562199289</v>
       </c>
       <c r="E15">
         <v>0.13131313131313133</v>
       </c>
       <c r="F15">
-        <v>7.3626250836051232E-2</v>
+        <v>6.9535858226932479E-2</v>
       </c>
       <c r="G15">
         <v>0.13131313131313133</v>
       </c>
       <c r="H15">
-        <v>0.159228361134651</v>
+        <v>0.16226979366312283</v>
       </c>
       <c r="I15">
         <v>0.13131313131313133</v>
       </c>
       <c r="J15">
-        <v>8.6967400318000265E-2</v>
+        <v>8.2135824521927858E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -882,25 +882,25 @@
         <v>0.14141414141414141</v>
       </c>
       <c r="D16">
-        <v>0.19274473247623461</v>
+        <v>0.19642636365592805</v>
       </c>
       <c r="E16">
         <v>0.14141414141414141</v>
       </c>
       <c r="F16">
-        <v>7.9688633339355497E-2</v>
+        <v>7.5261437968944633E-2</v>
       </c>
       <c r="G16">
         <v>0.14141414141414141</v>
       </c>
       <c r="H16">
-        <v>0.1708409400274388</v>
+        <v>0.17410418527151159</v>
       </c>
       <c r="I16">
         <v>0.14141414141414141</v>
       </c>
       <c r="J16">
-        <v>9.4214162532091569E-2</v>
+        <v>8.8979984372541954E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -914,25 +914,25 @@
         <v>0.15151515151515152</v>
       </c>
       <c r="D17">
-        <v>0.20565199394313155</v>
+        <v>0.20958016766461324</v>
       </c>
       <c r="E17">
         <v>0.15151515151515152</v>
       </c>
       <c r="F17">
-        <v>8.5812311267011637E-2</v>
+        <v>8.1044907796208904E-2</v>
       </c>
       <c r="G17">
         <v>0.15151515151515152</v>
       </c>
       <c r="H17">
-        <v>0.18236772880690411</v>
+        <v>0.18585114808337208</v>
       </c>
       <c r="I17">
         <v>0.15151515151515152</v>
       </c>
       <c r="J17">
-        <v>0.10154763070162548</v>
+        <v>9.5906033127678883E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -946,25 +946,25 @@
         <v>0.16161616161616163</v>
       </c>
       <c r="D18">
-        <v>0.21845217196717753</v>
+        <v>0.22262484282180278</v>
       </c>
       <c r="E18">
         <v>0.16161616161616163</v>
       </c>
       <c r="F18">
-        <v>9.1998218959431596E-2</v>
+        <v>8.6887150140761177E-2</v>
       </c>
       <c r="G18">
         <v>0.16161616161616163</v>
       </c>
       <c r="H18">
-        <v>0.19380967466021101</v>
+        <v>0.19751164737815941</v>
       </c>
       <c r="I18">
         <v>0.16161616161616163</v>
       </c>
       <c r="J18">
-        <v>0.10896937031923105</v>
+        <v>0.10291544930719092</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -978,25 +978,25 @@
         <v>0.17171717171717171</v>
       </c>
       <c r="D19">
-        <v>0.23114659364942849</v>
+        <v>0.23556174157760648</v>
       </c>
       <c r="E19">
         <v>0.17171717171717171</v>
       </c>
       <c r="F19">
-        <v>9.8247309843833244E-2</v>
+        <v>9.2789065461053408E-2</v>
       </c>
       <c r="G19">
         <v>0.17171717171717171</v>
       </c>
       <c r="H19">
-        <v>0.20516771088210919</v>
+        <v>0.2090866342775542</v>
       </c>
       <c r="I19">
         <v>0.17171717171717171</v>
       </c>
       <c r="J19">
-        <v>0.11648098479275176</v>
+        <v>0.1100097472397206</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1010,25 +1010,25 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="D20">
-        <v>0.24373656425187759</v>
+        <v>0.24839219412592209</v>
       </c>
       <c r="E20">
         <v>0.18181818181818182</v>
       </c>
       <c r="F20">
-        <v>0.10456055692412634</v>
+        <v>9.8751572704623383E-2</v>
       </c>
       <c r="G20">
         <v>0.18181818181818182</v>
       </c>
       <c r="H20">
-        <v>0.21644275712870426</v>
+        <v>0.22057704600408043</v>
       </c>
       <c r="I20">
         <v>0.18181818181818182</v>
       </c>
       <c r="J20">
-        <v>0.12408411660009032</v>
+        <v>0.1171904781533868</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1042,25 +1042,25 @@
         <v>0.19191919191919191</v>
       </c>
       <c r="D21">
-        <v>0.25622336764484938</v>
+        <v>0.26111750886037466</v>
       </c>
       <c r="E21">
         <v>0.19191919191919191</v>
       </c>
       <c r="F21">
-        <v>0.11093895328596445</v>
+        <v>0.10477560978508793</v>
       </c>
       <c r="G21">
         <v>0.19191919191919191</v>
       </c>
       <c r="H21">
-        <v>0.22763571966568466</v>
+        <v>0.23198380613407352</v>
       </c>
       <c r="I21">
         <v>0.19191919191919191</v>
       </c>
       <c r="J21">
-        <v>0.13178044848652182</v>
+        <v>0.1244592313065797</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -1074,25 +1074,25 @@
         <v>0.20202020202020202</v>
       </c>
       <c r="D22">
-        <v>0.26860826674344163</v>
+        <v>0.27373897281909537</v>
       </c>
       <c r="E22">
         <v>0.20202020202020202</v>
       </c>
       <c r="F22">
-        <v>0.11738351261751408</v>
+        <v>0.11086213407398005</v>
       </c>
       <c r="G22">
         <v>0.20202020202020202</v>
       </c>
       <c r="H22">
-        <v>0.23874749161114797</v>
+        <v>0.24330782484514482</v>
       </c>
       <c r="I22">
         <v>0.20202020202020202</v>
       </c>
       <c r="J22">
-        <v>0.13957170470630934</v>
+        <v>0.13181763516059711</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -1106,25 +1106,25 @@
         <v>0.21212121212121213</v>
       </c>
       <c r="D23">
-        <v>0.2808925039333246</v>
+        <v>0.28625785211865357</v>
       </c>
       <c r="E23">
         <v>0.21212121212121213</v>
       </c>
       <c r="F23">
-        <v>0.1238952697465132</v>
+        <v>0.11701212290797057</v>
       </c>
       <c r="G23">
         <v>0.21212121212121213</v>
       </c>
       <c r="H23">
-        <v>0.24977895317316129</v>
+        <v>0.25454999915827986</v>
       </c>
       <c r="I23">
         <v>0.21212121212121213</v>
       </c>
       <c r="J23">
-        <v>0.14745965231054539</v>
+        <v>0.13926735859593817</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -1138,25 +1138,25 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D24">
-        <v>0.29307730148619981</v>
+        <v>0.29867539237745178</v>
       </c>
       <c r="E24">
         <v>0.22222222222222221</v>
       </c>
       <c r="F24">
-        <v>0.13047528119421856</v>
+        <v>0.12322657411204022</v>
       </c>
       <c r="G24">
         <v>0.22222222222222221</v>
       </c>
       <c r="H24">
-        <v>0.26073097188218947</v>
+        <v>0.26571121317470625</v>
       </c>
       <c r="I24">
         <v>0.22222222222222221</v>
       </c>
       <c r="J24">
-        <v>0.15544610248324012</v>
+        <v>0.14681011217416379</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -1170,25 +1170,25 @@
         <v>0.23232323232323232</v>
       </c>
       <c r="D25">
-        <v>0.30516386196521095</v>
+        <v>0.31099281912887983</v>
       </c>
       <c r="E25">
         <v>0.23232323232323232</v>
       </c>
       <c r="F25">
-        <v>0.13712462574686299</v>
+        <v>0.12950650653918902</v>
       </c>
       <c r="G25">
         <v>0.23232323232323232</v>
       </c>
       <c r="H25">
-        <v>0.27160440281852044</v>
+        <v>0.2767923383076627</v>
       </c>
       <c r="I25">
         <v>0.23232323232323232</v>
       </c>
       <c r="J25">
-        <v>0.1635329119277783</v>
+        <v>0.15444764944732728</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -1202,25 +1202,25 @@
         <v>0.24242424242424243</v>
       </c>
       <c r="D26">
-        <v>0.31715336862058746</v>
+        <v>0.32321133822451598</v>
       </c>
       <c r="E26">
         <v>0.24242424242424243</v>
       </c>
       <c r="F26">
-        <v>0.14384440504527315</v>
+        <v>0.13585296062729704</v>
       </c>
       <c r="G26">
         <v>0.24242424242424243</v>
       </c>
       <c r="H26">
-        <v>0.28240008883481116</v>
+        <v>0.28779423350919614</v>
       </c>
       <c r="I26">
         <v>0.24242424242424243</v>
       </c>
       <c r="J26">
-        <v>0.1717219843059741</v>
+        <v>0.16218176831708078</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -1234,25 +1234,25 @@
         <v>0.25252525252525254</v>
       </c>
       <c r="D27">
-        <v>0.3290469857757965</v>
+        <v>0.33533213622765484</v>
       </c>
       <c r="E27">
         <v>0.25252525252525254</v>
       </c>
       <c r="F27">
-        <v>0.1506357441933236</v>
+        <v>0.1422669989737752</v>
       </c>
       <c r="G27">
         <v>0.25252525252525254</v>
       </c>
       <c r="H27">
-        <v>0.29311886077387822</v>
+        <v>0.2987177454921125</v>
       </c>
       <c r="I27">
         <v>0.25252525252525254</v>
       </c>
       <c r="J27">
-        <v>0.18001527173206647</v>
+        <v>0.17001431244567017</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -1266,25 +1266,25 @@
         <v>0.26262626262626265</v>
       </c>
       <c r="D28">
-        <v>0.34084585920446558</v>
+        <v>0.34735638079742936</v>
       </c>
       <c r="E28">
         <v>0.26262626262626265</v>
       </c>
       <c r="F28">
-        <v>0.15749979238593359</v>
+        <v>0.14874970692867287</v>
       </c>
       <c r="G28">
         <v>0.26262626262626265</v>
       </c>
       <c r="H28">
-        <v>0.30376153768184905</v>
+        <v>0.30956370894719876</v>
       </c>
       <c r="I28">
         <v>0.26262626262626265</v>
       </c>
       <c r="J28">
-        <v>0.1884147763241184</v>
+        <v>0.17794717272114413</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1298,25 +1298,25 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="D29">
-        <v>0.35255111649833409</v>
+        <v>0.35928522106379113</v>
       </c>
       <c r="E29">
         <v>0.27272727272727271</v>
       </c>
       <c r="F29">
-        <v>0.16443772355734285</v>
+        <v>0.15530219320693797</v>
       </c>
       <c r="G29">
         <v>0.27272727272727271</v>
       </c>
       <c r="H29">
-        <v>0.31432892701678977</v>
+        <v>0.32033294675583657</v>
       </c>
       <c r="I29">
         <v>0.27272727272727271</v>
       </c>
       <c r="J29">
-        <v>0.19692255181540899</v>
+        <v>0.18598228877922374</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -1330,25 +1330,25 @@
         <v>0.28282828282828282</v>
       </c>
       <c r="D30">
-        <v>0.36416386742648094</v>
+        <v>0.37111978799359885</v>
       </c>
       <c r="E30">
         <v>0.28282828282828282</v>
       </c>
       <c r="F30">
-        <v>0.17145073705043423</v>
+        <v>0.16192559052055461</v>
       </c>
       <c r="G30">
         <v>0.28282828282828282</v>
       </c>
       <c r="H30">
-        <v>0.32482182485292171</v>
+        <v>0.33102627019811887</v>
       </c>
       <c r="I30">
         <v>0.28282828282828282</v>
       </c>
       <c r="J30">
-        <v>0.2055407052285437</v>
+        <v>0.1941216505844055</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -1362,25 +1362,25 @@
         <v>0.29292929292929293</v>
       </c>
       <c r="D31">
-        <v>0.37568520428606855</v>
+        <v>0.38286119474806285</v>
       </c>
       <c r="E31">
         <v>0.29292929292929293</v>
       </c>
       <c r="F31">
-        <v>0.17854005830790448</v>
+        <v>0.1686210562313151</v>
       </c>
       <c r="G31">
         <v>0.29292929292929293</v>
       </c>
       <c r="H31">
-        <v>0.33524101608053358</v>
+        <v>0.34164447915658097</v>
       </c>
       <c r="I31">
         <v>0.29292929292929293</v>
       </c>
       <c r="J31">
-        <v>0.21427139861514771</v>
+        <v>0.2023673000730041</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -1394,25 +1394,25 @@
         <v>0.30303030303030304</v>
       </c>
       <c r="D32">
-        <v>0.38711620224483678</v>
+        <v>0.39451053703178013</v>
       </c>
       <c r="E32">
         <v>0.30303030303030304</v>
       </c>
       <c r="F32">
-        <v>0.18570693958612072</v>
+        <v>0.17538977302501713</v>
       </c>
       <c r="G32">
         <v>0.30303030303030304</v>
       </c>
       <c r="H32">
-        <v>0.34558727460169569</v>
+        <v>0.35218836231565315</v>
       </c>
       <c r="I32">
         <v>0.30303030303030304</v>
       </c>
       <c r="J32">
-        <v>0.22311685086416141</v>
+        <v>0.21072133286098549</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -1426,25 +1426,25 @@
         <v>0.31313131313131315</v>
       </c>
       <c r="D33">
-        <v>0.39845791967557109</v>
+        <v>0.40606889343359187</v>
       </c>
       <c r="E33">
         <v>0.31313131313131315</v>
       </c>
       <c r="F33">
-        <v>0.19295266069253464</v>
+        <v>0.18223294960791039</v>
       </c>
       <c r="G33">
         <v>0.31313131313131315</v>
       </c>
       <c r="H33">
-        <v>0.35586136352187941</v>
+        <v>0.36265869735693979</v>
       </c>
       <c r="I33">
         <v>0.31313131313131315</v>
       </c>
       <c r="J33">
-        <v>0.23207933958191307</v>
+        <v>0.2191859000195906</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -1458,25 +1458,25 @@
         <v>0.32323232323232326</v>
       </c>
       <c r="D34">
-        <v>0.40971139848276472</v>
+        <v>0.41753732575948521</v>
       </c>
       <c r="E34">
         <v>0.32323232323232326</v>
       </c>
       <c r="F34">
-        <v>0.20027852974756799</v>
+        <v>0.18915182142625422</v>
       </c>
       <c r="G34">
         <v>0.32323232323232326</v>
       </c>
       <c r="H34">
-        <v>0.36606403533757953</v>
+        <v>0.37305625115042623</v>
       </c>
       <c r="I34">
         <v>0.32323232323232326</v>
       </c>
       <c r="J34">
-        <v>0.24116120304731631</v>
+        <v>0.22776320992190893</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -1490,25 +1490,25 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D35">
-        <v>0.42087766442168639</v>
+        <v>0.42891687935775469</v>
       </c>
       <c r="E35">
         <v>0.33333333333333331</v>
       </c>
       <c r="F35">
-        <v>0.20768588397192062</v>
+        <v>0.19614765140988621</v>
       </c>
       <c r="G35">
         <v>0.33333333333333331</v>
       </c>
       <c r="H35">
-        <v>0.37619603212003838</v>
+        <v>0.38338177994171158</v>
       </c>
       <c r="I35">
         <v>0.33333333333333331</v>
       </c>
       <c r="J35">
-        <v>0.25036484224571703</v>
+        <v>0.23645553016373314</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -1522,25 +1522,25 @@
         <v>0.34343434343434343</v>
       </c>
       <c r="D36">
-        <v>0.43195772741005778</v>
+        <v>0.44020858343663416</v>
       </c>
       <c r="E36">
         <v>0.34343434343434343</v>
       </c>
       <c r="F36">
-        <v>0.21517609050029787</v>
+        <v>0.20322173074074157</v>
       </c>
       <c r="G36">
         <v>0.34343434343434343</v>
       </c>
       <c r="H36">
-        <v>0.38625808569516507</v>
+        <v>0.39363602953536497</v>
       </c>
       <c r="I36">
         <v>0.34343434343434343</v>
       </c>
       <c r="J36">
-        <v>0.25969272298510676</v>
+        <v>0.24526518956220322</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -1554,25 +1554,25 @@
         <v>0.35353535353535354</v>
       </c>
       <c r="D37">
-        <v>0.44295258183254083</v>
+        <v>0.45141345137459943</v>
       </c>
       <c r="E37">
         <v>0.35353535353535354</v>
       </c>
       <c r="F37">
-        <v>0.22275054722259507</v>
+        <v>0.21037537964730516</v>
       </c>
       <c r="G37">
         <v>0.35353535353535354</v>
       </c>
       <c r="H37">
-        <v>0.39625091781974081</v>
+        <v>0.40381973547449662</v>
       </c>
       <c r="I37">
         <v>0.35353535353535354</v>
       </c>
       <c r="J37">
-        <v>0.26914737809861838</v>
+        <v>0.25419458023594066</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -1586,25 +1586,25 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="D38">
-        <v>0.45386320683822667</v>
+        <v>0.46253248102353967</v>
       </c>
       <c r="E38">
         <v>0.36363636363636365</v>
       </c>
       <c r="F38">
-        <v>0.2304106836536291</v>
+        <v>0.21760994822602367</v>
       </c>
       <c r="G38">
         <v>0.36363636363636365</v>
       </c>
       <c r="H38">
-        <v>0.40617524035400088</v>
+        <v>0.41393362321663585</v>
       </c>
       <c r="I38">
         <v>0.36363636363636365</v>
       </c>
       <c r="J38">
-        <v>0.27873140973743971</v>
+        <v>0.2632461597705758</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -1618,25 +1618,25 @@
         <v>0.37373737373737376</v>
       </c>
       <c r="D39">
-        <v>0.46469056663131436</v>
+        <v>0.47356665500498857</v>
       </c>
       <c r="E39">
         <v>0.37373737373737376</v>
       </c>
       <c r="F39">
-        <v>0.23815796183255122</v>
+        <v>0.2249268172907507</v>
       </c>
       <c r="G39">
         <v>0.37373737373737376</v>
       </c>
       <c r="H39">
-        <v>0.41603175543067883</v>
+        <v>0.42397840830600469</v>
       </c>
       <c r="I39">
         <v>0.37373737373737376</v>
       </c>
       <c r="J39">
-        <v>0.28844749175850232</v>
+        <v>0.2724224534737863</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -1650,25 +1650,25 @@
         <v>0.38383838383838381</v>
       </c>
       <c r="D40">
-        <v>0.47543561075515933</v>
+        <v>0.48451694099959874</v>
       </c>
       <c r="E40">
         <v>0.38383838383838381</v>
       </c>
       <c r="F40">
-        <v>0.24599387725313132</v>
+        <v>0.23232739925134796</v>
       </c>
       <c r="G40">
         <v>0.38383838383838381</v>
       </c>
       <c r="H40">
-        <v>0.42582115562059719</v>
+        <v>0.43395479654227165</v>
       </c>
       <c r="I40">
         <v>0.38383838383838381</v>
       </c>
       <c r="J40">
-        <v>0.29829837221154953</v>
+        <v>0.2817260567241931</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -1682,25 +1682,25 @@
         <v>0.39393939393939392</v>
       </c>
       <c r="D41">
-        <v>0.48609927436986866</v>
+        <v>0.49538429203003809</v>
       </c>
       <c r="E41">
         <v>0.39393939393939392</v>
       </c>
       <c r="F41">
-        <v>0.25391995982615551</v>
+        <v>0.23981313902261578</v>
       </c>
       <c r="G41">
         <v>0.39393939393939392</v>
       </c>
       <c r="H41">
-        <v>0.43554412409488802</v>
+        <v>0.44386348414587012</v>
       </c>
       <c r="I41">
         <v>0.39393939393939392</v>
       </c>
       <c r="J41">
-        <v>0.30828687593044196</v>
+        <v>0.29115963741870265</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -1714,25 +1714,25 @@
         <v>0.40404040404040403</v>
       </c>
       <c r="D42">
-        <v>0.49668247852361097</v>
+        <v>0.50616964673748377</v>
       </c>
       <c r="E42">
         <v>0.40404040404040403</v>
       </c>
       <c r="F42">
-        <v>0.26193777487523912</v>
+        <v>0.24738551496478248</v>
       </c>
       <c r="G42">
         <v>0.40404040404040403</v>
       </c>
       <c r="H42">
-        <v>0.4452013347839206</v>
+        <v>0.45370515791996263</v>
       </c>
       <c r="I42">
         <v>0.40404040404040403</v>
       </c>
       <c r="J42">
-        <v>0.31841590723383395</v>
+        <v>0.3007259385231445</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -1746,25 +1746,25 @@
         <v>0.41414141414141414</v>
       </c>
       <c r="D43">
-        <v>0.5071861304178108</v>
+        <v>0.51687392965188073</v>
       </c>
       <c r="E43">
         <v>0.41414141414141414</v>
       </c>
       <c r="F43">
-        <v>0.27004892416741622</v>
+        <v>0.25504603985683821</v>
       </c>
       <c r="G43">
         <v>0.41414141414141414</v>
       </c>
       <c r="H43">
-        <v>0.45479345253301684</v>
+        <v>0.46348049540912989</v>
       </c>
       <c r="I43">
         <v>0.41414141414141414</v>
       </c>
       <c r="J43">
-        <v>0.32868845274064457</v>
+        <v>0.31042778073132515</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -1778,25 +1778,25 @@
         <v>0.42424242424242425</v>
       </c>
       <c r="D44">
-        <v>0.51761112366638273</v>
+        <v>0.52749805145612805</v>
       </c>
       <c r="E44">
         <v>0.42424242424242425</v>
       </c>
       <c r="F44">
-        <v>0.27825504697993009</v>
+        <v>0.26279626190405886</v>
       </c>
       <c r="G44">
         <v>0.42424242424242425</v>
       </c>
       <c r="H44">
-        <v>0.46432113325502783</v>
+        <v>0.47319016505486222</v>
       </c>
       <c r="I44">
         <v>0.42424242424242425</v>
       </c>
       <c r="J44">
-        <v>0.33910758430605592</v>
+        <v>0.32026806523791373</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -1810,25 +1810,25 @@
         <v>0.43434343434343436</v>
       </c>
       <c r="D45">
-        <v>0.52795833854916496</v>
+        <v>0.53804290924435338</v>
       </c>
       <c r="E45">
         <v>0.43434343434343436</v>
       </c>
       <c r="F45">
-        <v>0.28655782120471807</v>
+        <v>0.27063776578112969</v>
       </c>
       <c r="G45">
         <v>0.43434343434343436</v>
       </c>
       <c r="H45">
-        <v>0.47378502407984591</v>
+        <v>0.48283482634792735</v>
       </c>
       <c r="I45">
         <v>0.43434343434343436</v>
       </c>
       <c r="J45">
-        <v>0.34967646208410236</v>
+        <v>0.33024977663088551</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -1842,25 +1842,25 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="D46">
-        <v>0.53822864225970024</v>
+        <v>0.54850938677442629</v>
       </c>
       <c r="E46">
         <v>0.44444444444444442</v>
       </c>
       <c r="F46">
-        <v>0.29495896449215298</v>
+        <v>0.27857217371234511</v>
       </c>
       <c r="G46">
         <v>0.44444444444444442</v>
       </c>
       <c r="H46">
-        <v>0.48318576350092357</v>
+        <v>0.49241512997768749</v>
       </c>
       <c r="I46">
         <v>0.44444444444444442</v>
       </c>
       <c r="J46">
-        <v>0.36039833772326391</v>
+        <v>0.34037598590958046</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -1874,25 +1874,25 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="D47">
-        <v>0.5484228891475128</v>
+        <v>0.55889835471486371</v>
       </c>
       <c r="E47">
         <v>0.45454545454545453</v>
       </c>
       <c r="F47">
-        <v>0.30346023543567952</v>
+        <v>0.28660114659043096</v>
       </c>
       <c r="G47">
         <v>0.45454545454545453</v>
       </c>
       <c r="H47">
-        <v>0.49252398151886972</v>
+        <v>0.50193171797843916</v>
       </c>
       <c r="I47">
         <v>0.45454545454545453</v>
       </c>
       <c r="J47">
-        <v>0.3712765577018533</v>
+        <v>0.3506498536347884</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -1906,25 +1906,25 @@
         <v>0.46464646464646464</v>
       </c>
       <c r="D48">
-        <v>0.55854192095502264</v>
+        <v>0.56921067088626875</v>
       </c>
       <c r="E48">
         <v>0.46464646464646464</v>
       </c>
       <c r="F48">
-        <v>0.31206343479906051</v>
+        <v>0.29472638513560995</v>
       </c>
       <c r="G48">
         <v>0.46464646464646464</v>
       </c>
       <c r="H48">
-        <v>0.50180029978218932</v>
+        <v>0.51138522387284069</v>
       </c>
       <c r="I48">
         <v>0.46464646464646464</v>
       </c>
       <c r="J48">
-        <v>0.38231456681038073</v>
+        <v>0.36107463321764788</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -1938,25 +1938,25 @@
         <v>0.47474747474747475</v>
       </c>
       <c r="D49">
-        <v>0.56858656704923394</v>
+        <v>0.57944718049744548</v>
       </c>
       <c r="E49">
         <v>0.47474747474747475</v>
       </c>
       <c r="F49">
-        <v>0.32077040678803348</v>
+        <v>0.30294963109660938</v>
       </c>
       <c r="G49">
         <v>0.47474747474747475</v>
       </c>
       <c r="H49">
-        <v>0.51101533172523372</v>
+        <v>0.52077627281249794</v>
       </c>
       <c r="I49">
         <v>0.47474747474747475</v>
       </c>
       <c r="J49">
-        <v>0.39351591178851214</v>
+        <v>0.37165367435454782</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -1970,25 +1970,25 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="D50">
-        <v>0.57855764464833459</v>
+        <v>0.58960871637632561</v>
       </c>
       <c r="E50">
         <v>0.48484848484848486</v>
       </c>
       <c r="F50">
-        <v>0.32958304036826208</v>
+        <v>0.31127266849539309</v>
       </c>
       <c r="G50">
         <v>0.48484848484848486</v>
       </c>
       <c r="H50">
-        <v>0.52016968270342723</v>
+        <v>0.53010548171577287</v>
       </c>
       <c r="I50">
         <v>0.48484848484848486</v>
       </c>
       <c r="J50">
-        <v>0.40488424512468446</v>
+        <v>0.38239042661565192</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -2002,25 +2002,25 @@
         <v>0.49494949494949497</v>
       </c>
       <c r="D51">
-        <v>0.58845595904333337</v>
+        <v>0.59969609919584044</v>
       </c>
       <c r="E51">
         <v>0.49494949494949497</v>
       </c>
       <c r="F51">
-        <v>0.33850327063156277</v>
+        <v>0.31969732491748476</v>
       </c>
       <c r="G51">
         <v>0.49494949494949497</v>
       </c>
       <c r="H51">
-        <v>0.52926395012582916</v>
+        <v>0.53937345940287895</v>
       </c>
       <c r="I51">
         <v>0.49494949494949497</v>
       </c>
       <c r="J51">
-        <v>0.41642332902693041</v>
+        <v>0.39328844319511858</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -2034,25 +2034,25 @@
         <v>0.50505050505050508</v>
       </c>
       <c r="D52">
-        <v>0.59828230381486325</v>
+        <v>0.60971013769486415</v>
       </c>
       <c r="E52">
         <v>0.50505050505050508</v>
       </c>
       <c r="F52">
-        <v>0.34753308021247975</v>
+        <v>0.32822547284984405</v>
       </c>
       <c r="G52">
         <v>0.50505050505050508</v>
       </c>
       <c r="H52">
-        <v>0.53829872358509501</v>
+        <v>0.54858080672832399</v>
       </c>
       <c r="I52">
         <v>0.50505050505050508</v>
       </c>
       <c r="J52">
-        <v>0.42813703957397986</v>
+        <v>0.40435138483158339</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -2066,25 +2066,25 @@
         <v>0.51515151515151514</v>
       </c>
       <c r="D53">
-        <v>0.60803746104527234</v>
+        <v>0.6196516288943571</v>
       </c>
       <c r="E53">
         <v>0.51515151515151514</v>
       </c>
       <c r="F53">
-        <v>0.35667450075738888</v>
+        <v>0.33685903106835263</v>
       </c>
       <c r="G53">
         <v>0.51515151515151514</v>
       </c>
       <c r="H53">
-        <v>0.54727458498489567</v>
+        <v>0.55772811671076328</v>
       </c>
       <c r="I53">
         <v>0.51515151515151514</v>
       </c>
       <c r="J53">
-        <v>0.44002937105626128</v>
+        <v>0.41558302390799129</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -2098,25 +2098,25 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="D54">
-        <v>0.61772220152612334</v>
+        <v>0.62952135830882738</v>
       </c>
       <c r="E54">
         <v>0.5252525252525253</v>
       </c>
       <c r="F54">
-        <v>0.3659296144484151</v>
+        <v>0.34559996607706867</v>
       </c>
       <c r="G54">
         <v>0.5252525252525253</v>
       </c>
       <c r="H54">
-        <v>0.55619210866485158</v>
+        <v>0.56681597466032019</v>
       </c>
       <c r="I54">
         <v>0.5252525252525253</v>
       </c>
       <c r="J54">
-        <v>0.45210444051701343</v>
+        <v>0.42698724874042149</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -2130,25 +2130,25 @@
         <v>0.53535353535353536</v>
       </c>
       <c r="D55">
-        <v>0.6273372849612131</v>
+        <v>0.63932010015322993</v>
       </c>
       <c r="E55">
         <v>0.53535353535353536</v>
       </c>
       <c r="F55">
-        <v>0.37530055558456582</v>
+        <v>0.35445029360151786</v>
       </c>
       <c r="G55">
         <v>0.53535353535353536</v>
       </c>
       <c r="H55">
-        <v>0.56505186152303932</v>
+        <v>0.57584495830343285</v>
       </c>
       <c r="I55">
         <v>0.53535353535353536</v>
       </c>
       <c r="J55">
-        <v>0.4643664925043563</v>
+        <v>0.4385680680661509</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -2162,25 +2162,25 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="D56">
-        <v>0.63688346016523067</v>
+        <v>0.64904861754541743</v>
       </c>
       <c r="E56">
         <v>0.54545454545454541</v>
       </c>
       <c r="F56">
-        <v>0.38478951222260144</v>
+        <v>0.36341208013840437</v>
       </c>
       <c r="G56">
         <v>0.54545454545454541</v>
       </c>
       <c r="H56">
-        <v>0.57385440313612546</v>
+        <v>0.58481563790528235</v>
       </c>
       <c r="I56">
         <v>0.54545454545454541</v>
       </c>
       <c r="J56">
-        <v>0.47681990404584101</v>
+        <v>0.45032961574183822</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -2194,25 +2194,25 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="D57">
-        <v>0.64636146525815585</v>
+        <v>0.65870766270425307</v>
       </c>
       <c r="E57">
         <v>0.55555555555555558</v>
       </c>
       <c r="F57">
-        <v>0.39439872788029245</v>
+        <v>0.37248744456424099</v>
       </c>
       <c r="G57">
         <v>0.55555555555555558</v>
       </c>
       <c r="H57">
-        <v>0.58260028587717816</v>
+        <v>0.5937285763898551</v>
       </c>
       <c r="I57">
         <v>0.55555555555555558</v>
       </c>
       <c r="J57">
-        <v>0.48946918985772758</v>
+        <v>0.46227615566339303</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -2226,25 +2226,25 @@
         <v>0.56565656565656564</v>
       </c>
       <c r="D58">
-        <v>0.65577202785551059</v>
+        <v>0.66829797714349604</v>
       </c>
       <c r="E58">
         <v>0.56565656565656564</v>
       </c>
       <c r="F58">
-        <v>0.40413050330484906</v>
+        <v>0.3816785598055315</v>
       </c>
       <c r="G58">
         <v>0.56565656565656564</v>
       </c>
       <c r="H58">
-        <v>0.59129005503121435</v>
+        <v>0.60258432945769702</v>
       </c>
       <c r="I58">
         <v>0.56565656565656564</v>
       </c>
       <c r="J58">
-        <v>0.50231900780201411</v>
+        <v>0.47441208691983394</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -2258,25 +2258,25 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="D59">
-        <v>0.66511586525456234</v>
+        <v>0.67782029186156145</v>
       </c>
       <c r="E59">
         <v>0.5757575757575758</v>
       </c>
       <c r="F59">
-        <v>0.41398719830945147</v>
+        <v>0.39098765457327089</v>
       </c>
       <c r="G59">
         <v>0.5757575757575758</v>
       </c>
       <c r="H59">
-        <v>0.59992424890852869</v>
+        <v>0.61138344570140679</v>
       </c>
       <c r="I59">
         <v>0.5757575757575758</v>
       </c>
       <c r="J59">
-        <v>0.51537416460507546</v>
+        <v>0.48674194919422187</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -2290,25 +2290,25 @@
         <v>0.58585858585858586</v>
       </c>
       <c r="D60">
-        <v>0.67439368461658089</v>
+        <v>0.68727532752725762</v>
       </c>
       <c r="E60">
         <v>0.58585858585858586</v>
       </c>
       <c r="F60">
-        <v>0.4239712336809579</v>
+        <v>0.4004170151646676</v>
       </c>
       <c r="G60">
         <v>0.58585858585858586</v>
       </c>
       <c r="H60">
-        <v>0.60850339895585326</v>
+        <v>0.62012646671891924</v>
       </c>
       <c r="I60">
         <v>0.58585858585858586</v>
       </c>
       <c r="J60">
-        <v>0.52863962185265811</v>
+        <v>0.49927042842559516</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -2322,25 +2322,25 @@
         <v>0.59595959595959591</v>
       </c>
       <c r="D61">
-        <v>0.68360618314524546</v>
+        <v>0.69666379466160211</v>
       </c>
       <c r="E61">
         <v>0.59595959595959591</v>
       </c>
       <c r="F61">
-        <v>0.43408509316203325</v>
+        <v>0.40996898733515336</v>
       </c>
       <c r="G61">
         <v>0.59595959595959591</v>
       </c>
       <c r="H61">
-        <v>0.61702802986540162</v>
+        <v>0.62881392722463236</v>
       </c>
       <c r="I61">
         <v>0.59595959595959591</v>
       </c>
       <c r="J61">
-        <v>0.54212050227694297</v>
+        <v>0.51200236274674749</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -2354,25 +2354,25 @@
         <v>0.60606060606060608</v>
       </c>
       <c r="D62">
-        <v>0.69275404826129627</v>
+        <v>0.70598639381580897</v>
       </c>
       <c r="E62">
         <v>0.60606060606060608</v>
       </c>
       <c r="F62">
-        <v>0.44433132551110399</v>
+        <v>0.41964597824389499</v>
       </c>
       <c r="G62">
         <v>0.60606060606060608</v>
       </c>
       <c r="H62">
-        <v>0.6254986596818376</v>
+        <v>0.63744635515841852</v>
       </c>
       <c r="I62">
         <v>0.60606060606060608</v>
       </c>
       <c r="J62">
-        <v>0.55582209635240731</v>
+        <v>0.52494274871364976</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -2386,25 +2386,25 @@
         <v>0.61616161616161613</v>
       </c>
       <c r="D63">
-        <v>0.70183795777352487</v>
+        <v>0.71524381574554496</v>
       </c>
       <c r="E63">
         <v>0.61616161616161613</v>
       </c>
       <c r="F63">
-        <v>0.45471254664373073</v>
+        <v>0.42945045847619967</v>
       </c>
       <c r="G63">
         <v>0.61616161616161613</v>
       </c>
       <c r="H63">
-        <v>0.63391579990721858</v>
+        <v>0.6460242717925736</v>
       </c>
       <c r="I63">
         <v>0.61616161616161613</v>
       </c>
       <c r="J63">
-        <v>0.56974986921833171</v>
+        <v>0.53809674784336814</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -2418,25 +2418,25 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="D64">
-        <v>0.71085858004618829</v>
+        <v>0.72443674158154092</v>
       </c>
       <c r="E64">
         <v>0.6262626262626263</v>
       </c>
       <c r="F64">
-        <v>0.46523144185917614</v>
+        <v>0.43938496414638406</v>
       </c>
       <c r="G64">
         <v>0.6262626262626263</v>
       </c>
       <c r="H64">
-        <v>0.64227995560395823</v>
+        <v>0.65454819183674451</v>
       </c>
       <c r="I64">
         <v>0.6262626262626263</v>
       </c>
       <c r="J64">
-        <v>0.58390946794698018</v>
+        <v>0.55146969347845187</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
@@ -2450,25 +2450,25 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="D65">
-        <v>0.71981657416293676</v>
+        <v>0.73356584299665262</v>
       </c>
       <c r="E65">
         <v>0.63636363636363635</v>
       </c>
       <c r="F65">
-        <v>0.47589076815614823</v>
+        <v>0.4494520990848635</v>
       </c>
       <c r="G65">
         <v>0.63636363636363635</v>
       </c>
       <c r="H65">
-        <v>0.65059162549584793</v>
+        <v>0.66301862354088292</v>
       </c>
       <c r="I65">
         <v>0.63636363636363635</v>
       </c>
       <c r="J65">
-        <v>0.59830672917775662</v>
+        <v>0.56506709799696608</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -2482,25 +2482,25 @@
         <v>0.64646464646464652</v>
       </c>
       <c r="D66">
-        <v>0.72871259008734135</v>
+        <v>0.74263178236945238</v>
       </c>
       <c r="E66">
         <v>0.64646464646464652</v>
       </c>
       <c r="F66">
-        <v>0.48669335664191732</v>
+        <v>0.45965453711342757</v>
       </c>
       <c r="G66">
         <v>0.64646464646464652</v>
       </c>
       <c r="H66">
-        <v>0.65885130206718601</v>
+        <v>0.67143606879626527</v>
       </c>
       <c r="I66">
         <v>0.64646464646464652</v>
       </c>
       <c r="J66">
-        <v>0.61294768713902614</v>
+        <v>0.57889466038865056</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -2514,25 +2514,25 @@
         <v>0.65656565656565657</v>
       </c>
       <c r="D67">
-        <v>0.73754726882009691</v>
+        <v>0.75163521294443569</v>
       </c>
       <c r="E67">
         <v>0.65656565656565657</v>
       </c>
       <c r="F67">
-        <v>0.49764211503922329</v>
+        <v>0.46999502441287355</v>
       </c>
       <c r="G67">
         <v>0.65656565656565657</v>
       </c>
       <c r="H67">
-        <v>0.66705947166005031</v>
+        <v>0.67980102323462466</v>
       </c>
       <c r="I67">
         <v>0.65656565656565657</v>
       </c>
       <c r="J67">
-        <v>0.62783858208075649</v>
+        <v>0.59295827421907665</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -2546,25 +2546,25 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D68">
-        <v>0.74632124255298848</v>
+        <v>0.76057677898892928</v>
       </c>
       <c r="E68">
         <v>0.66666666666666663</v>
       </c>
       <c r="F68">
-        <v>0.50874003029564219</v>
+        <v>0.48047638198740578</v>
       </c>
       <c r="G68">
         <v>0.66666666666666663</v>
       </c>
       <c r="H68">
-        <v>0.67521661456975635</v>
+        <v>0.6881139763254327</v>
       </c>
       <c r="I68">
         <v>0.66666666666666663</v>
       </c>
       <c r="J68">
-        <v>0.64298586914274314</v>
+        <v>0.60726403600518697</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -2578,25 +2578,25 @@
         <v>0.6767676767676768</v>
       </c>
       <c r="D69">
-        <v>0.7550351348196922</v>
+        <v>0.76945711594677169</v>
       </c>
       <c r="E69">
         <v>0.6767676767676768</v>
       </c>
       <c r="F69">
-        <v>0.51999017130032532</v>
+        <v>0.49110150823044402</v>
       </c>
       <c r="G69">
         <v>0.6767676767676768</v>
       </c>
       <c r="H69">
-        <v>0.68332320513854228</v>
+        <v>0.69637541147137327</v>
       </c>
       <c r="I69">
         <v>0.6767676767676768</v>
       </c>
       <c r="J69">
-        <v>0.65839622768489114</v>
+        <v>0.62181825402722291</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -2610,25 +2610,25 @@
         <v>0.68686868686868685</v>
       </c>
       <c r="D70">
-        <v>0.76368956064348936</v>
+        <v>0.77827685058884821</v>
       </c>
       <c r="E70">
         <v>0.68686868686868685</v>
       </c>
       <c r="F70">
-        <v>0.53139569171330414</v>
+        <v>0.50187338159674266</v>
       </c>
       <c r="G70">
         <v>0.68686868686868685</v>
       </c>
       <c r="H70">
-        <v>0.69137971184751656</v>
+        <v>0.70458580610204635</v>
       </c>
       <c r="I70">
         <v>0.68686868686868685</v>
       </c>
       <c r="J70">
-        <v>0.67407657110788732</v>
+        <v>0.63662745760379813</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
@@ -2642,25 +2642,25 @@
         <v>0.69696969696969702</v>
       </c>
       <c r="D71">
-        <v>0.77228512668196836</v>
+        <v>0.78703660116055829</v>
       </c>
       <c r="E71">
         <v>0.69696969696969702</v>
       </c>
       <c r="F71">
-        <v>0.54295983291284144</v>
+        <v>0.51279506338599812</v>
       </c>
       <c r="G71">
         <v>0.69696969696969702</v>
       </c>
       <c r="H71">
-        <v>0.69938659740690623</v>
+        <v>0.71274563176594097</v>
       </c>
       <c r="I71">
         <v>0.69696969696969702</v>
       </c>
       <c r="J71">
-        <v>0.69003405719460309</v>
+        <v>0.65169840685877223</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -2674,25 +2674,25 @@
         <v>0.70707070707070707</v>
       </c>
       <c r="D72">
-        <v>0.78082243136878082</v>
+        <v>0.79573697752627859</v>
       </c>
       <c r="E72">
         <v>0.70707070707070707</v>
       </c>
       <c r="F72">
-        <v>0.55468592706661057</v>
+        <v>0.52386970064340543</v>
       </c>
       <c r="G72">
         <v>0.70707070707070707</v>
       </c>
       <c r="H72">
-        <v>0.70734431884464344</v>
+        <v>0.72085535422071301</v>
       </c>
       <c r="I72">
         <v>0.70707070707070707</v>
       </c>
       <c r="J72">
-        <v>0.70627609900472044</v>
+        <v>0.66703810301061284</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -2706,25 +2706,25 @@
         <v>0.71717171717171713</v>
       </c>
       <c r="D73">
-        <v>0.78930206505252898</v>
+        <v>0.80437858131090256</v>
       </c>
       <c r="E73">
         <v>0.71717171717171713</v>
       </c>
       <c r="F73">
-        <v>0.56657740033282045</v>
+        <v>0.53510052918294093</v>
       </c>
       <c r="G73">
         <v>0.71717171717171713</v>
       </c>
       <c r="H73">
-        <v>0.71525332759332561</v>
+        <v>0.72891543352180677</v>
       </c>
       <c r="I73">
         <v>0.71717171717171713</v>
       </c>
       <c r="J73">
-        <v>0.72281037635742695</v>
+        <v>0.68265379921715674</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -2738,25 +2738,25 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="D74">
-        <v>0.79772461013284468</v>
+        <v>0.81296200603852009</v>
       </c>
       <c r="E74">
         <v>0.72727272727272729</v>
       </c>
       <c r="F74">
-        <v>0.57863777619774226</v>
+        <v>0.54649087673946883</v>
       </c>
       <c r="G74">
         <v>0.72727272727272729</v>
       </c>
       <c r="H74">
-        <v>0.72311406957558211</v>
+        <v>0.73692632410945236</v>
       </c>
       <c r="I74">
         <v>0.72727272727272729</v>
       </c>
       <c r="J74">
-        <v>0.73964484793954444</v>
+        <v>0.69855301201105691</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
@@ -2770,25 +2770,25 @@
         <v>0.73737373737373735</v>
       </c>
       <c r="D75">
-        <v>0.80609064119373042</v>
+        <v>0.82148783726830454</v>
       </c>
       <c r="E75">
         <v>0.73737373737373735</v>
       </c>
       <c r="F75">
-        <v>0.59087067895646872</v>
+        <v>0.5580441662561223</v>
       </c>
       <c r="G75">
         <v>0.73737373737373735</v>
       </c>
       <c r="H75">
-        <v>0.73092698528788347</v>
+        <v>0.7448884748940755</v>
       </c>
       <c r="I75">
         <v>0.73737373737373735</v>
       </c>
       <c r="J75">
-        <v>0.75678776407919945</v>
+        <v>0.71474353336379648</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -2802,25 +2802,25 @@
         <v>0.74747474747474751</v>
       </c>
       <c r="D76">
-        <v>0.8144007251342259</v>
+        <v>0.82995665272767538</v>
       </c>
       <c r="E76">
         <v>0.74747474747474751</v>
       </c>
       <c r="F76">
-        <v>0.60327983734413049</v>
+        <v>0.56976391931378434</v>
       </c>
       <c r="G76">
         <v>0.74747474747474751</v>
       </c>
       <c r="H76">
-        <v>0.73869250988282664</v>
+        <v>0.75280232934015445</v>
       </c>
       <c r="I76">
         <v>0.74747474747474751</v>
       </c>
       <c r="J76">
-        <v>0.77424768022811385</v>
+        <v>0.73123344341895524</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -2834,25 +2834,25 @@
         <v>0.75757575757575757</v>
       </c>
       <c r="D77">
-        <v>0.82265542129646063</v>
+        <v>0.83836902244279721</v>
       </c>
       <c r="E77">
         <v>0.75757575757575757</v>
       </c>
       <c r="F77">
-        <v>0.61586908832520892</v>
+        <v>0.58165375970987976</v>
       </c>
       <c r="G77">
         <v>0.75757575757575757</v>
       </c>
       <c r="H77">
-        <v>0.74641107324992473</v>
+        <v>0.76066832554855346</v>
       </c>
       <c r="I77">
         <v>0.75757575757575757</v>
       </c>
       <c r="J77">
-        <v>0.79203347119879819</v>
+        <v>0.74803112393843885</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -2866,25 +2866,25 @@
         <v>0.76767676767676762</v>
       </c>
       <c r="D78">
-        <v>0.83085528159115529</v>
+        <v>0.84672550886647735</v>
       </c>
       <c r="E78">
         <v>0.76767676767676762</v>
       </c>
       <c r="F78">
-        <v>0.62864238104903769</v>
+        <v>0.59371741719412519</v>
       </c>
       <c r="G78">
         <v>0.76767676767676762</v>
       </c>
       <c r="H78">
-        <v>0.7540831000949384</v>
+        <v>0.76848689633736877</v>
       </c>
       <c r="I78">
         <v>0.76767676767676762</v>
       </c>
       <c r="J78">
-        <v>0.81015434620643412</v>
+        <v>0.76514527250869246</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -2898,25 +2898,25 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D79">
-        <v>0.83900085062063023</v>
+        <v>0.8550266670035247</v>
       </c>
       <c r="E79">
         <v>0.77777777777777779</v>
       </c>
       <c r="F79">
-        <v>0.64160378098005721</v>
+        <v>0.60595873136932199</v>
       </c>
       <c r="G79">
         <v>0.77777777777777779</v>
       </c>
       <c r="H79">
-        <v>0.76170901001777502</v>
+        <v>0.77625846932131604</v>
       </c>
       <c r="I79">
         <v>0.77777777777777779</v>
       </c>
       <c r="J79">
-        <v>0.82861986476900762</v>
+        <v>0.78258491755748238</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -2930,25 +2930,25 @@
         <v>0.78787878787878785</v>
       </c>
       <c r="D80">
-        <v>0.84709266579937814</v>
+        <v>0.86327304453362541</v>
       </c>
       <c r="E80">
         <v>0.78787878787878785</v>
       </c>
       <c r="F80">
-        <v>0.65475747421189567</v>
+        <v>0.61838165576576321</v>
       </c>
       <c r="G80">
         <v>0.78787878787878785</v>
       </c>
       <c r="H80">
-        <v>0.7692892175889865</v>
+        <v>0.78398346698968957</v>
       </c>
       <c r="I80">
         <v>0.78787878787878785</v>
       </c>
       <c r="J80">
-        <v>0.84743995352337054</v>
+        <v>0.8003594342357222</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -2962,25 +2962,25 @@
         <v>0.79797979797979801</v>
       </c>
       <c r="D81">
-        <v>0.85513125747225871</v>
+        <v>0.87146518193179501</v>
       </c>
       <c r="E81">
         <v>0.79797979797979801</v>
       </c>
       <c r="F81">
-        <v>0.66810777197489601</v>
+        <v>0.63099026209834008</v>
       </c>
       <c r="G81">
         <v>0.79797979797979801</v>
       </c>
       <c r="H81">
-        <v>0.77682413242489867</v>
+        <v>0.79166230678292659</v>
       </c>
       <c r="I81">
         <v>0.79797979797979801</v>
       </c>
       <c r="J81">
-        <v>0.86662492401938929</v>
+        <v>0.81847856122304707</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -2994,25 +2994,25 @@
         <v>0.80808080808080807</v>
       </c>
       <c r="D82">
-        <v>0.8631171490303674</v>
+        <v>0.87960361258646036</v>
       </c>
       <c r="E82">
         <v>0.80808080808080807</v>
       </c>
       <c r="F82">
-        <v>0.68165911534728096</v>
+        <v>0.64378874471597236</v>
       </c>
       <c r="G82">
         <v>0.80808080808080807</v>
       </c>
       <c r="H82">
-        <v>0.78431415926139514</v>
+        <v>0.79929540116780029</v>
       </c>
       <c r="I82">
         <v>0.80808080808080807</v>
       </c>
       <c r="J82">
-        <v>0.88618549155919546</v>
+        <v>0.83695241852042679</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -3026,25 +3026,25 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="D83">
-        <v>0.8710508570246337</v>
+        <v>0.88768886291522786</v>
       </c>
       <c r="E83">
         <v>0.81818181818181823</v>
       </c>
       <c r="F83">
-        <v>0.69541608018077405</v>
+        <v>0.65678142525358119</v>
       </c>
       <c r="G83">
         <v>0.81818181818181823</v>
       </c>
       <c r="H83">
-        <v>0.79175969802638735</v>
+        <v>0.80688315771127417</v>
       </c>
       <c r="I83">
         <v>0.81818181818181823</v>
       </c>
       <c r="J83">
-        <v>0.9061327951538608</v>
+        <v>0.85579152629812505</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -3058,25 +3058,25 @@
         <v>0.82828282828282829</v>
       </c>
       <c r="D84">
-        <v>0.87893289127719854</v>
+        <v>0.89572145247838852</v>
       </c>
       <c r="E84">
         <v>0.82828282828282829</v>
       </c>
       <c r="F84">
-        <v>0.70938338225215092</v>
+        <v>0.66997275749743967</v>
       </c>
       <c r="G84">
         <v>0.82828282828282829</v>
       </c>
       <c r="H84">
-        <v>0.79916114391099824</v>
+        <v>0.8144259791530456</v>
       </c>
       <c r="I84">
         <v>0.82828282828282829</v>
       </c>
       <c r="J84">
-        <v>0.92647841867559344</v>
+        <v>0.87500682487276116</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -3090,25 +3090,25 @@
         <v>0.83838383838383834</v>
       </c>
       <c r="D85">
-        <v>0.88676375499062454</v>
+        <v>0.90370189409021351</v>
       </c>
       <c r="E85">
         <v>0.83838383838383834</v>
       </c>
       <c r="F85">
-        <v>0.72356588265290611</v>
+        <v>0.68336733247540959</v>
       </c>
       <c r="G85">
         <v>0.83838383838383834</v>
       </c>
       <c r="H85">
-        <v>0.80651888743948286</v>
+        <v>0.82192426347680192</v>
       </c>
       <c r="I85">
         <v>0.83838383838383834</v>
       </c>
       <c r="J85">
-        <v>0.94723441328985514</v>
+        <v>0.89460969589318184</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -3122,25 +3122,25 @@
         <v>0.84848484848484851</v>
       </c>
       <c r="D86">
-        <v>0.89454394485498456</v>
+        <v>0.91163069392808904</v>
       </c>
       <c r="E86">
         <v>0.84848484848484851</v>
       </c>
       <c r="F86">
-        <v>0.73796859342997323</v>
+        <v>0.69696988378428693</v>
       </c>
       <c r="G86">
         <v>0.84848484848484851</v>
       </c>
       <c r="H86">
-        <v>0.81383331453791585</v>
+        <v>0.82937840398022</v>
       </c>
       <c r="I86">
         <v>0.84848484848484851</v>
       </c>
       <c r="J86">
-        <v>0.96841332125867041</v>
+        <v>0.91461198482135442</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -3154,25 +3154,25 @@
         <v>0.85858585858585856</v>
       </c>
       <c r="D87">
-        <v>0.90227395115287712</v>
+        <v>0.91950835163953748</v>
       </c>
       <c r="E87">
         <v>0.85858585858585856</v>
       </c>
       <c r="F87">
-        <v>0.75259668349124942</v>
+        <v>0.71078529316723538</v>
       </c>
       <c r="G87">
         <v>0.85858585858585856</v>
       </c>
       <c r="H87">
-        <v>0.82110480660166851</v>
+        <v>0.8367887893437318</v>
       </c>
       <c r="I87">
         <v>0.85858585858585856</v>
       </c>
       <c r="J87">
-        <v>0.99002820121392487</v>
+        <v>0.93502602480157271</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -3186,25 +3186,25 @@
         <v>0.86868686868686873</v>
       </c>
       <c r="D88">
-        <v>0.90995425786242001</v>
+        <v>0.92733536044717768</v>
       </c>
       <c r="E88">
         <v>0.86868686868686873</v>
       </c>
       <c r="F88">
-        <v>0.76745548479054471</v>
+        <v>0.72481859635512558</v>
       </c>
       <c r="G88">
         <v>0.86868686868686873</v>
       </c>
       <c r="H88">
-        <v>0.82833374056170184</v>
+        <v>0.84415580369808407</v>
       </c>
       <c r="I88">
         <v>0.86868686868686873</v>
       </c>
       <c r="J88">
-        <v>1.0120926550076643</v>
+        <v>0.95586466201905962</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -3218,25 +3218,25 @@
         <v>0.87878787878787878</v>
       </c>
       <c r="D89">
-        <v>0.91758534275825854</v>
+        <v>0.93511220725166322</v>
       </c>
       <c r="E89">
         <v>0.87878787878787878</v>
       </c>
       <c r="F89">
-        <v>0.78255049880749583</v>
+        <v>0.73907498918644865</v>
       </c>
       <c r="G89">
         <v>0.87878787878787878</v>
       </c>
       <c r="H89">
-        <v>0.83552048894969688</v>
+        <v>0.85147982669071254</v>
       </c>
       <c r="I89">
         <v>0.87878787878787878</v>
       </c>
       <c r="J89">
-        <v>1.0346208562553956</v>
+        <v>0.9771412826575101</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -3250,25 +3250,25 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D90">
-        <v>0.92516767751064277</v>
+        <v>0.94283937273265217</v>
       </c>
       <c r="E90">
         <v>0.88888888888888884</v>
       </c>
       <c r="F90">
-        <v>0.79788740333899943</v>
+        <v>0.75355983402144378</v>
       </c>
       <c r="G90">
         <v>0.88888888888888884</v>
       </c>
       <c r="H90">
-        <v>0.84266541996205235</v>
+        <v>0.85876123355096223</v>
       </c>
       <c r="I90">
         <v>0.88888888888888884</v>
       </c>
       <c r="J90">
-        <v>1.0576275806982662</v>
+        <v>0.9988698415744639</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -3282,25 +3282,25 @@
         <v>0.89898989898989901</v>
       </c>
       <c r="D91">
-        <v>0.93270172778260863</v>
+        <v>0.95051733144784389</v>
       </c>
       <c r="E91">
         <v>0.89898989898989901</v>
       </c>
       <c r="F91">
-        <v>0.81347205961976399</v>
+        <v>0.76827866646705945</v>
       </c>
       <c r="G91">
         <v>0.89898989898989901</v>
       </c>
       <c r="H91">
-        <v>0.84976889752276286</v>
+        <v>0.86600039515416638</v>
       </c>
       <c r="I91">
         <v>0.89898989898989901</v>
       </c>
       <c r="J91">
-        <v>1.0811282385207814</v>
+        <v>1.0210648928235746</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -3314,25 +3314,25 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="D92">
-        <v>0.94018795332531002</v>
+        <v>0.95814655193013276</v>
       </c>
       <c r="E92">
         <v>0.90909090909090906</v>
       </c>
       <c r="F92">
-        <v>0.82931051979075143</v>
+        <v>0.78323720243047734</v>
       </c>
       <c r="G92">
         <v>0.90909090909090906</v>
       </c>
       <c r="H92">
-        <v>0.85683128134521036</v>
+        <v>0.8731976780846189</v>
       </c>
       <c r="I92">
         <v>0.90909090909090906</v>
       </c>
       <c r="J92">
-        <v>1.1051389087726058</v>
+        <v>1.0437416221640692</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -3346,25 +3346,25 @@
         <v>0.91919191919191923</v>
       </c>
       <c r="D93">
-        <v>0.94762680807154032</v>
+        <v>0.96572749678291536</v>
       </c>
       <c r="E93">
         <v>0.91919191919191923</v>
       </c>
       <c r="F93">
-        <v>0.84540903473549545</v>
+        <v>0.79844134552007429</v>
       </c>
       <c r="G93">
         <v>0.91919191919191923</v>
       </c>
       <c r="H93">
-        <v>0.86385292699288485</v>
+        <v>0.88035344469745358</v>
       </c>
       <c r="I93">
         <v>0.91919191919191923</v>
       </c>
       <c r="J93">
-        <v>1.1296763760560244</v>
+        <v>1.0669158817099911</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -3378,25 +3378,25 @@
         <v>0.92929292929292928</v>
       </c>
       <c r="D94">
-        <v>0.95501874022748556</v>
+        <v>0.9732606227735966</v>
       </c>
       <c r="E94">
         <v>0.92929292929292928</v>
       </c>
       <c r="F94">
-        <v>0.86177406230561093</v>
+        <v>0.81389719481395406</v>
       </c>
       <c r="G94">
         <v>0.92929292929292928</v>
       </c>
       <c r="H94">
-        <v>0.87083418593905604</v>
+        <v>0.88746805317945665</v>
       </c>
       <c r="I94">
         <v>0.92929292929292928</v>
       </c>
       <c r="J94">
-        <v>1.1547581696549634</v>
+        <v>1.0906042268853644</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -3410,25 +3410,25 @@
         <v>0.93939393939393945</v>
       </c>
       <c r="D95">
-        <v>0.96236419236274429</v>
+        <v>0.98074638092532962</v>
       </c>
       <c r="E95">
         <v>0.93939393939393945</v>
       </c>
       <c r="F95">
-        <v>0.87841227595823934</v>
+        <v>0.82961105301752935</v>
       </c>
       <c r="G95">
         <v>0.93939393939393945</v>
       </c>
       <c r="H95">
-        <v>0.87777540562542045</v>
+        <v>0.89454185760883376</v>
       </c>
       <c r="I95">
         <v>0.93939393939393945</v>
       </c>
       <c r="J95">
-        <v>1.1804026052972771</v>
+        <v>1.1148239558663282</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -3442,25 +3442,25 @@
         <v>0.9494949494949495</v>
       </c>
       <c r="D96">
-        <v>0.96966360149865816</v>
+        <v>0.98818521660703207</v>
       </c>
       <c r="E96">
         <v>0.9494949494949495</v>
       </c>
       <c r="F96">
-        <v>0.89533057382969261</v>
+        <v>0.84558943503306916</v>
       </c>
       <c r="G96">
         <v>0.9494949494949495</v>
       </c>
       <c r="H96">
-        <v>0.88467692951974097</v>
+        <v>0.90157520801395064</v>
       </c>
       <c r="I96">
         <v>0.9494949494949495</v>
       </c>
       <c r="J96">
-        <v>1.2066288297593812</v>
+        <v>1.139593151707706</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -3474,25 +3474,25 @@
         <v>0.95959595959595956</v>
       </c>
       <c r="D97">
-        <v>0.97691739919498255</v>
+        <v>0.99557756962171395</v>
       </c>
       <c r="E97">
         <v>0.95959595959595956</v>
       </c>
       <c r="F97">
-        <v>0.91253608827122212</v>
+        <v>0.8618390769656965</v>
       </c>
       <c r="G97">
         <v>0.95959595959595956</v>
       </c>
       <c r="H97">
-        <v>0.89153909717249991</v>
+        <v>0.90856845043106815</v>
       </c>
       <c r="I97">
         <v>0.95959595959595956</v>
       </c>
       <c r="J97">
-        <v>1.2334568685415241</v>
+        <v>1.1649307273696234</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -3506,25 +3506,25 @@
         <v>0.96969696969696972</v>
       </c>
       <c r="D98">
-        <v>0.98412601163494162</v>
+        <v>1.0029238742931561</v>
       </c>
       <c r="E98">
         <v>0.96969696969696972</v>
       </c>
       <c r="F98">
-        <v>0.93003619587460118</v>
+        <v>0.8783669455919878</v>
       </c>
       <c r="G98">
         <v>0.96969696969696972</v>
       </c>
       <c r="H98">
-        <v>0.89836224427258848</v>
+        <v>0.91552192696109547</v>
       </c>
       <c r="I98">
         <v>0.96969696969696972</v>
       </c>
       <c r="J98">
-        <v>1.2609076768631697</v>
+        <v>1.1908564738797798</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
@@ -3538,25 +3538,25 @@
         <v>0.97979797979797978</v>
       </c>
       <c r="D99">
-        <v>0.99128985970869543</v>
+        <v>1.0102245595509725</v>
       </c>
       <c r="E99">
         <v>0.97979797979797978</v>
       </c>
       <c r="F99">
-        <v>0.9478385280171262</v>
+        <v>0.89518024831913479</v>
       </c>
       <c r="G99">
         <v>0.97979797979797978</v>
       </c>
       <c r="H99">
-        <v>0.90514670270204445</v>
+        <v>0.92243597582537329</v>
       </c>
       <c r="I99">
         <v>0.97979797979797978</v>
       </c>
       <c r="J99">
-        <v>1.2890031942514055</v>
+        <v>1.2173911118891358</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
@@ -3570,25 +3570,25 @@
         <v>0.98989898989898994</v>
       </c>
       <c r="D100">
-        <v>0.99840935909525885</v>
+        <v>1.0174800490140929</v>
       </c>
       <c r="E100">
         <v>0.98989898989898994</v>
       </c>
       <c r="F100">
-        <v>0.96595098195771401</v>
+        <v>0.91228644366458445</v>
       </c>
       <c r="G100">
         <v>0.98989898989898994</v>
       </c>
       <c r="H100">
-        <v>0.91189280058986444</v>
+        <v>0.92931093142051424</v>
       </c>
       <c r="I100">
         <v>0.98989898989898994</v>
       </c>
       <c r="J100">
-        <v>1.3177664030212461</v>
+        <v>1.2445563469032752</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
@@ -3602,25 +3602,25 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1.0054849203429037</v>
+        <v>1.0246907610727014</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>0.98438173251798211</v>
+        <v>0.92969325228816324</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0.91860086236490701</v>
+        <v>0.93614712437231584</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101">
-        <v>1.347221390975432</v>
+        <v>1.2723749284988408</v>
       </c>
     </row>
   </sheetData>
